--- a/BookData/nyt2023.xlsx
+++ b/BookData/nyt2023.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/stephaniewolter/Desktop/BootCamp/Project_1/GAIs-and-Dolls/BookData/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/stephaniewolter/Desktop/BootCamp/Project_1/GAIs-and-Dolls/GAIs-and-Dolls/BookData/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBB84EA3-6CC3-7F4F-A5F8-6AF7F99DA262}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F4CA351-7902-5F40-B11F-93F8B4CFE788}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1900" yWindow="500" windowWidth="27060" windowHeight="15980" activeTab="2" xr2:uid="{CE4EC2DC-BBD7-8843-84C2-2C9EDE5D3843}"/>
+    <workbookView xWindow="1740" yWindow="500" windowWidth="27060" windowHeight="15940" activeTab="2" xr2:uid="{CE4EC2DC-BBD7-8843-84C2-2C9EDE5D3843}"/>
   </bookViews>
   <sheets>
     <sheet name="Publisher" sheetId="4" r:id="rId1"/>
@@ -39,8 +39,8 @@
   </definedNames>
   <calcPr calcId="181029"/>
   <pivotCaches>
-    <pivotCache cacheId="38" r:id="rId5"/>
-    <pivotCache cacheId="42" r:id="rId6"/>
+    <pivotCache cacheId="66" r:id="rId5"/>
+    <pivotCache cacheId="67" r:id="rId6"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -64,7 +64,7 @@
 <file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
 <connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16">
   <connection id="1" xr16:uid="{33A1D73D-7FF9-1D45-A145-A8593F389950}" name="Feb23_1" type="6" refreshedVersion="8" background="1" saveData="1">
-    <textPr codePage="10000" sourceFile="/Users/stephaniewolter/Desktop/BootCamp/Project_1/GAIs-and-Dolls/BookData/csv_data/Feb23_1.csv" comma="1">
+    <textPr sourceFile="/Users/stephaniewolter/Desktop/BootCamp/Project_1/GAIs-and-Dolls/BookData/csv_data/Feb23_1.csv" comma="1">
       <textFields count="9">
         <textField/>
         <textField/>
@@ -79,7 +79,7 @@
     </textPr>
   </connection>
   <connection id="2" xr16:uid="{CEF03EC9-2937-E24B-933F-81BDDB02026B}" name="Feb23_11" type="6" refreshedVersion="8" background="1" saveData="1">
-    <textPr codePage="10000" sourceFile="/Users/stephaniewolter/Desktop/BootCamp/Project_1/GAIs-and-Dolls/BookData/csv_data/Feb23_1.csv" comma="1">
+    <textPr sourceFile="/Users/stephaniewolter/Desktop/BootCamp/Project_1/GAIs-and-Dolls/BookData/csv_data/Feb23_1.csv" comma="1">
       <textFields count="9">
         <textField/>
         <textField/>
@@ -94,7 +94,7 @@
     </textPr>
   </connection>
   <connection id="3" xr16:uid="{BDC165AC-44E3-A840-87BD-233A9537F8B9}" name="Feb23_2" type="6" refreshedVersion="8" background="1" saveData="1">
-    <textPr codePage="10000" sourceFile="/Users/stephaniewolter/Desktop/BootCamp/Project_1/GAIs-and-Dolls/BookData/csv_data/Feb23_2.csv" comma="1">
+    <textPr sourceFile="/Users/stephaniewolter/Desktop/BootCamp/Project_1/GAIs-and-Dolls/BookData/csv_data/Feb23_2.csv" comma="1">
       <textFields count="9">
         <textField/>
         <textField/>
@@ -109,7 +109,7 @@
     </textPr>
   </connection>
   <connection id="4" xr16:uid="{1F225C61-F10E-4C44-A1B5-F43ED5B0C8C0}" name="Feb23_21" type="6" refreshedVersion="8" background="1" saveData="1">
-    <textPr codePage="10000" sourceFile="/Users/stephaniewolter/Desktop/BootCamp/Project_1/GAIs-and-Dolls/BookData/csv_data/Feb23_2.csv" comma="1">
+    <textPr sourceFile="/Users/stephaniewolter/Desktop/BootCamp/Project_1/GAIs-and-Dolls/BookData/csv_data/Feb23_2.csv" comma="1">
       <textFields count="9">
         <textField/>
         <textField/>
@@ -124,7 +124,7 @@
     </textPr>
   </connection>
   <connection id="5" xr16:uid="{851DF3DA-086E-C64E-B840-E9886A88C4DC}" name="Jan23_1" type="6" refreshedVersion="8" background="1" saveData="1">
-    <textPr codePage="10000" sourceFile="/Users/stephaniewolter/Desktop/BootCamp/Project_1/GAIs-and-Dolls/BookData/csv_data/Jan23_1.csv" comma="1">
+    <textPr sourceFile="/Users/stephaniewolter/Desktop/BootCamp/Project_1/GAIs-and-Dolls/BookData/csv_data/Jan23_1.csv" comma="1">
       <textFields count="9">
         <textField/>
         <textField/>
@@ -139,7 +139,7 @@
     </textPr>
   </connection>
   <connection id="6" xr16:uid="{223FBE41-3389-3540-B481-D336262BD6C6}" name="Jan23_11" type="6" refreshedVersion="8" background="1" saveData="1">
-    <textPr codePage="10000" sourceFile="/Users/stephaniewolter/Desktop/BootCamp/Project_1/GAIs-and-Dolls/BookData/csv_data/Jan23_1.csv" comma="1">
+    <textPr sourceFile="/Users/stephaniewolter/Desktop/BootCamp/Project_1/GAIs-and-Dolls/BookData/csv_data/Jan23_1.csv" comma="1">
       <textFields count="9">
         <textField/>
         <textField/>
@@ -154,7 +154,7 @@
     </textPr>
   </connection>
   <connection id="7" xr16:uid="{29C9B7BB-71DE-B446-BBFB-7155A2792A83}" name="Jan23_2" type="6" refreshedVersion="8" background="1" saveData="1">
-    <textPr codePage="10000" sourceFile="/Users/stephaniewolter/Desktop/BootCamp/Project_1/GAIs-and-Dolls/BookData/csv_data/Jan23_2.csv" comma="1">
+    <textPr sourceFile="/Users/stephaniewolter/Desktop/BootCamp/Project_1/GAIs-and-Dolls/BookData/csv_data/Jan23_2.csv" comma="1">
       <textFields count="9">
         <textField/>
         <textField/>
@@ -169,7 +169,7 @@
     </textPr>
   </connection>
   <connection id="8" xr16:uid="{1EDCAFA4-EB76-5A4D-A671-B239E8F45881}" name="Jan23_21" type="6" refreshedVersion="8" background="1" saveData="1">
-    <textPr codePage="10000" sourceFile="/Users/stephaniewolter/Desktop/BootCamp/Project_1/GAIs-and-Dolls/BookData/csv_data/Jan23_2.csv" comma="1">
+    <textPr sourceFile="/Users/stephaniewolter/Desktop/BootCamp/Project_1/GAIs-and-Dolls/BookData/csv_data/Jan23_2.csv" comma="1">
       <textFields count="9">
         <textField/>
         <textField/>
@@ -184,7 +184,7 @@
     </textPr>
   </connection>
   <connection id="9" xr16:uid="{C7E44F65-AF71-3042-A89E-A7B7A9E3338A}" name="Mar23_1" type="6" refreshedVersion="8" background="1" saveData="1">
-    <textPr codePage="10000" sourceFile="/Users/stephaniewolter/Desktop/BootCamp/Project_1/GAIs-and-Dolls/BookData/csv_data/Mar23_1.csv" tab="0" comma="1">
+    <textPr sourceFile="/Users/stephaniewolter/Desktop/BootCamp/Project_1/GAIs-and-Dolls/BookData/csv_data/Mar23_1.csv" tab="0" comma="1">
       <textFields count="9">
         <textField/>
         <textField/>
@@ -199,7 +199,7 @@
     </textPr>
   </connection>
   <connection id="10" xr16:uid="{21B186B7-1921-6049-8A1D-647AAD59D49B}" name="Mar23_11" type="6" refreshedVersion="8" background="1" saveData="1">
-    <textPr codePage="10000" sourceFile="/Users/stephaniewolter/Desktop/BootCamp/Project_1/GAIs-and-Dolls/BookData/csv_data/Mar23_1.csv" tab="0" comma="1">
+    <textPr sourceFile="/Users/stephaniewolter/Desktop/BootCamp/Project_1/GAIs-and-Dolls/BookData/csv_data/Mar23_1.csv" tab="0" comma="1">
       <textFields count="9">
         <textField/>
         <textField/>
@@ -214,7 +214,7 @@
     </textPr>
   </connection>
   <connection id="11" xr16:uid="{B0C5F3D9-24D1-784A-A92C-F383C11C7C18}" name="Mar23_2" type="6" refreshedVersion="8" background="1" saveData="1">
-    <textPr codePage="10000" sourceFile="/Users/stephaniewolter/Desktop/BootCamp/Project_1/GAIs-and-Dolls/BookData/csv_data/Mar23_2.csv" comma="1">
+    <textPr sourceFile="/Users/stephaniewolter/Desktop/BootCamp/Project_1/GAIs-and-Dolls/BookData/csv_data/Mar23_2.csv" comma="1">
       <textFields count="9">
         <textField/>
         <textField/>
@@ -229,7 +229,7 @@
     </textPr>
   </connection>
   <connection id="12" xr16:uid="{695D740E-75E3-344B-A462-718C22D2FE57}" name="Mar23_21" type="6" refreshedVersion="8" background="1" saveData="1">
-    <textPr codePage="10000" sourceFile="/Users/stephaniewolter/Desktop/BootCamp/Project_1/GAIs-and-Dolls/BookData/csv_data/Mar23_2.csv" comma="1">
+    <textPr sourceFile="/Users/stephaniewolter/Desktop/BootCamp/Project_1/GAIs-and-Dolls/BookData/csv_data/Mar23_2.csv" comma="1">
       <textFields count="9">
         <textField/>
         <textField/>
@@ -247,7 +247,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3634" uniqueCount="466">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3650" uniqueCount="466">
   <si>
     <t>Title</t>
   </si>
@@ -1688,7 +1688,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -1704,7 +1704,6 @@
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1829,6 +1828,186 @@
           </c:extLst>
         </c:dLbl>
       </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="1"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="2"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="3"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="4"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="5"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="6"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="7"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="8"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="9"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="10"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="11"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="12"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="13"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="14"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="15"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+      </c:pivotFmt>
     </c:pivotFmts>
     <c:plotArea>
       <c:layout/>
@@ -1860,6 +2039,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-A542-DF49-883B-2D0BE4F979E4}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="1"/>
@@ -1873,6 +2057,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-A542-DF49-883B-2D0BE4F979E4}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="2"/>
@@ -1886,6 +2075,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000005-A542-DF49-883B-2D0BE4F979E4}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="3"/>
@@ -1899,6 +2093,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000007-A542-DF49-883B-2D0BE4F979E4}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="4"/>
@@ -1912,6 +2111,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000009-A542-DF49-883B-2D0BE4F979E4}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="5"/>
@@ -1925,6 +2129,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000B-A542-DF49-883B-2D0BE4F979E4}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="6"/>
@@ -1940,6 +2149,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000D-A542-DF49-883B-2D0BE4F979E4}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="7"/>
@@ -1955,6 +2169,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000F-A542-DF49-883B-2D0BE4F979E4}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="8"/>
@@ -1970,6 +2189,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000011-A542-DF49-883B-2D0BE4F979E4}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="9"/>
@@ -1985,6 +2209,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000013-A542-DF49-883B-2D0BE4F979E4}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="10"/>
@@ -2000,6 +2229,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000015-A542-DF49-883B-2D0BE4F979E4}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="11"/>
@@ -2015,6 +2249,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000017-A542-DF49-883B-2D0BE4F979E4}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="12"/>
@@ -2031,6 +2270,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000019-A542-DF49-883B-2D0BE4F979E4}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="13"/>
@@ -2047,6 +2291,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000001B-A542-DF49-883B-2D0BE4F979E4}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="14"/>
@@ -2063,6 +2312,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000001D-A542-DF49-883B-2D0BE4F979E4}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dLbls>
             <c:spPr>
@@ -2450,6 +2704,114 @@
           </c:extLst>
         </c:dLbl>
       </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="1"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="2"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="3"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="4"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="5"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="6"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="7"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="8"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="9"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+      </c:pivotFmt>
     </c:pivotFmts>
     <c:plotArea>
       <c:layout/>
@@ -2481,6 +2843,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-9BBC-4346-B586-CCAB62C33657}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="1"/>
@@ -2494,6 +2861,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-9BBC-4346-B586-CCAB62C33657}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="2"/>
@@ -2507,6 +2879,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000005-9BBC-4346-B586-CCAB62C33657}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="3"/>
@@ -2520,6 +2897,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000007-9BBC-4346-B586-CCAB62C33657}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="4"/>
@@ -2533,6 +2915,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000009-9BBC-4346-B586-CCAB62C33657}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="5"/>
@@ -2546,6 +2933,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000B-9BBC-4346-B586-CCAB62C33657}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="6"/>
@@ -2561,6 +2953,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000D-9BBC-4346-B586-CCAB62C33657}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="7"/>
@@ -2576,6 +2973,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000F-9BBC-4346-B586-CCAB62C33657}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="8"/>
@@ -2591,6 +2993,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000011-9BBC-4346-B586-CCAB62C33657}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:cat>
             <c:strRef>
@@ -13098,7 +13505,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{79C7C839-4F19-AF4A-9950-C6B33EF7C5BE}" name="PivotTable2" cacheId="38" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{79C7C839-4F19-AF4A-9950-C6B33EF7C5BE}" name="PivotTable2" cacheId="66" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
   <location ref="A3:B19" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="10">
     <pivotField dataField="1" showAll="0"/>
@@ -13607,12 +14014,192 @@
   <dataFields count="1">
     <dataField name="Count of Title" fld="0" subtotal="count" baseField="0" baseItem="0"/>
   </dataFields>
-  <chartFormats count="1">
+  <chartFormats count="16">
     <chartFormat chart="0" format="0" series="1">
       <pivotArea type="data" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1" selected="0">
             <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="3" count="1" selected="0">
+            <x v="9"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="2">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="3" count="1" selected="0">
+            <x v="11"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="3">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="3" count="1" selected="0">
+            <x v="4"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="4">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="3" count="1" selected="0">
+            <x v="6"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="5">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="3" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="6">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="3" count="1" selected="0">
+            <x v="14"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="7">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="3" count="1" selected="0">
+            <x v="10"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="8">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="3" count="1" selected="0">
+            <x v="8"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="9">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="3" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="10">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="3" count="1" selected="0">
+            <x v="7"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="11">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="3" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="12">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="3" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="13">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="3" count="1" selected="0">
+            <x v="12"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="14">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="3" count="1" selected="0">
+            <x v="13"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="15">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="3" count="1" selected="0">
+            <x v="5"/>
           </reference>
         </references>
       </pivotArea>
@@ -13631,91 +14218,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{21B23601-D285-F64E-9251-888BE7D1B322}" name="PivotTable8" cacheId="42" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="K3:L14" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
-  <pivotFields count="9">
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisRow" showAll="0">
-      <items count="11">
-        <item x="6"/>
-        <item x="3"/>
-        <item x="7"/>
-        <item x="8"/>
-        <item x="5"/>
-        <item x="9"/>
-        <item x="0"/>
-        <item x="1"/>
-        <item x="4"/>
-        <item x="2"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField numFmtId="14" showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="6"/>
-  </rowFields>
-  <rowItems count="11">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="4"/>
-    </i>
-    <i>
-      <x v="5"/>
-    </i>
-    <i>
-      <x v="6"/>
-    </i>
-    <i>
-      <x v="7"/>
-    </i>
-    <i>
-      <x v="8"/>
-    </i>
-    <i>
-      <x v="9"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <dataFields count="1">
-    <dataField name="Sum of Weeks on NYT List" fld="8" baseField="0" baseItem="0"/>
-  </dataFields>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{896D11C3-BF27-F849-9E3C-439FFB223AEB}" name="PivotTable5" cacheId="42" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{896D11C3-BF27-F849-9E3C-439FFB223AEB}" name="PivotTable5" cacheId="67" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
   <location ref="A17:B27" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="9">
     <pivotField dataField="1" showAll="0"/>
@@ -13828,20 +14331,104 @@
 </pivotTableDefinition>
 </file>
 
+<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{21B23601-D285-F64E-9251-888BE7D1B322}" name="PivotTable8" cacheId="67" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="K3:L14" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="9">
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="11">
+        <item x="6"/>
+        <item x="3"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item x="5"/>
+        <item x="9"/>
+        <item x="0"/>
+        <item x="1"/>
+        <item x="4"/>
+        <item x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField numFmtId="14" showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="6"/>
+  </rowFields>
+  <rowItems count="11">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i>
+      <x v="7"/>
+    </i>
+    <i>
+      <x v="8"/>
+    </i>
+    <i>
+      <x v="9"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Sum of Weeks on NYT List" fld="8" baseField="0" baseItem="0"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="Feb23_1" connectionId="2" xr16:uid="{BDEF1440-63C8-1444-8924-28937492B74B}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable10.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="Jan23_1" connectionId="5" xr16:uid="{A8594D88-FA21-8A45-9BC1-933A12BA25EF}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="Mar23_1" connectionId="9" xr16:uid="{BDCCFAC4-6371-E24F-8BC8-8FDBD506A05D}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable11.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="Feb23_2" connectionId="3" xr16:uid="{B021047D-A7E9-AB4E-92A1-4D63B73984C9}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="Jan23_2" connectionId="7" xr16:uid="{5B922DEF-A263-2C40-A475-15CDA3C478E7}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable12.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="Feb23_1" connectionId="1" xr16:uid="{96149860-732C-AF4F-96CB-2E1C0281F099}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="Jan23_1" connectionId="5" xr16:uid="{A8594D88-FA21-8A45-9BC1-933A12BA25EF}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -13865,15 +14452,15 @@
 </file>
 
 <file path=xl/queryTables/queryTable7.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="Mar23_2" connectionId="11" xr16:uid="{A59223E5-5239-1849-95F2-C2B9697F4AD8}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="Feb23_2" connectionId="3" xr16:uid="{B021047D-A7E9-AB4E-92A1-4D63B73984C9}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable8.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="Mar23_1" connectionId="9" xr16:uid="{BDCCFAC4-6371-E24F-8BC8-8FDBD506A05D}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="Feb23_1" connectionId="1" xr16:uid="{96149860-732C-AF4F-96CB-2E1C0281F099}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable9.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="Jan23_2" connectionId="7" xr16:uid="{5B922DEF-A263-2C40-A475-15CDA3C478E7}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="Mar23_2" connectionId="11" xr16:uid="{A59223E5-5239-1849-95F2-C2B9697F4AD8}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -14174,7 +14761,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{933F8B85-93F6-8340-AF79-11A9C084BDBF}">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:F83"/>
+  <dimension ref="A1:E83"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B5" sqref="B5"/>
@@ -14377,7 +14964,7 @@
       <c r="A4" s="6" t="s">
         <v>458</v>
       </c>
-      <c r="B4" s="9">
+      <c r="B4">
         <v>140</v>
       </c>
     </row>
@@ -14385,7 +14972,7 @@
       <c r="A5" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="B5" s="9">
+      <c r="B5">
         <v>65</v>
       </c>
     </row>
@@ -14393,7 +14980,7 @@
       <c r="A6" s="6" t="s">
         <v>338</v>
       </c>
-      <c r="B6" s="9">
+      <c r="B6">
         <v>60</v>
       </c>
     </row>
@@ -14401,7 +14988,7 @@
       <c r="A7" s="6" t="s">
         <v>459</v>
       </c>
-      <c r="B7" s="9">
+      <c r="B7">
         <v>33</v>
       </c>
     </row>
@@ -14409,7 +14996,7 @@
       <c r="A8" s="6" t="s">
         <v>461</v>
       </c>
-      <c r="B8" s="9">
+      <c r="B8">
         <v>27</v>
       </c>
     </row>
@@ -14417,7 +15004,7 @@
       <c r="A9" s="6" t="s">
         <v>452</v>
       </c>
-      <c r="B9" s="9">
+      <c r="B9">
         <v>16</v>
       </c>
     </row>
@@ -14425,7 +15012,7 @@
       <c r="A10" s="6" t="s">
         <v>233</v>
       </c>
-      <c r="B10" s="9">
+      <c r="B10">
         <v>12</v>
       </c>
     </row>
@@ -14433,7 +15020,7 @@
       <c r="A11" s="6" t="s">
         <v>463</v>
       </c>
-      <c r="B11" s="9">
+      <c r="B11">
         <v>8</v>
       </c>
     </row>
@@ -14441,7 +15028,7 @@
       <c r="A12" s="6" t="s">
         <v>457</v>
       </c>
-      <c r="B12" s="9">
+      <c r="B12">
         <v>7</v>
       </c>
     </row>
@@ -14449,7 +15036,7 @@
       <c r="A13" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="B13" s="9">
+      <c r="B13">
         <v>6</v>
       </c>
     </row>
@@ -14457,7 +15044,7 @@
       <c r="A14" s="6" t="s">
         <v>239</v>
       </c>
-      <c r="B14" s="9">
+      <c r="B14">
         <v>5</v>
       </c>
     </row>
@@ -14465,7 +15052,7 @@
       <c r="A15" s="6" t="s">
         <v>460</v>
       </c>
-      <c r="B15" s="9">
+      <c r="B15">
         <v>4</v>
       </c>
     </row>
@@ -14473,289 +15060,225 @@
       <c r="A16" s="6" t="s">
         <v>462</v>
       </c>
-      <c r="B16" s="9">
+      <c r="B16">
         <v>4</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" s="6" t="s">
         <v>464</v>
       </c>
-      <c r="B17" s="9">
+      <c r="B17">
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" s="6" t="s">
         <v>424</v>
       </c>
-      <c r="B18" s="9">
+      <c r="B18">
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" s="6" t="s">
         <v>453</v>
       </c>
-      <c r="B19" s="9">
+      <c r="B19">
         <v>390</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="E20" s="6"/>
-      <c r="F20" s="9"/>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="E21" s="6"/>
-      <c r="F21" s="9"/>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="E22" s="6"/>
-      <c r="F22" s="9"/>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="E23" s="6"/>
-      <c r="F23" s="9"/>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="E24" s="6"/>
-      <c r="F24" s="9"/>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="E25" s="6"/>
-      <c r="F25" s="9"/>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="E26" s="6"/>
-      <c r="F26" s="9"/>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="E27" s="6"/>
-      <c r="F27" s="9"/>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="E28" s="6"/>
-      <c r="F28" s="9"/>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="E29" s="6"/>
-      <c r="F29" s="9"/>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="E30" s="6"/>
-      <c r="F30" s="9"/>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="E31" s="6"/>
-      <c r="F31" s="9"/>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
       <c r="E32" s="6"/>
-      <c r="F32" s="9"/>
-    </row>
-    <row r="33" spans="5:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="33" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E33" s="6"/>
-      <c r="F33" s="9"/>
-    </row>
-    <row r="34" spans="5:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="34" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E34" s="6"/>
-      <c r="F34" s="9"/>
-    </row>
-    <row r="35" spans="5:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="35" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E35" s="6"/>
-      <c r="F35" s="9"/>
-    </row>
-    <row r="36" spans="5:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="36" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E36" s="6"/>
-      <c r="F36" s="9"/>
-    </row>
-    <row r="37" spans="5:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="37" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E37" s="6"/>
-      <c r="F37" s="9"/>
-    </row>
-    <row r="38" spans="5:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="38" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E38" s="6"/>
-      <c r="F38" s="9"/>
-    </row>
-    <row r="39" spans="5:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="39" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E39" s="6"/>
-      <c r="F39" s="9"/>
-    </row>
-    <row r="40" spans="5:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="40" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E40" s="6"/>
-      <c r="F40" s="9"/>
-    </row>
-    <row r="41" spans="5:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="41" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E41" s="6"/>
-      <c r="F41" s="9"/>
-    </row>
-    <row r="42" spans="5:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="42" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E42" s="6"/>
-      <c r="F42" s="9"/>
-    </row>
-    <row r="43" spans="5:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="43" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E43" s="6"/>
-      <c r="F43" s="9"/>
-    </row>
-    <row r="44" spans="5:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="44" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E44" s="6"/>
-      <c r="F44" s="9"/>
-    </row>
-    <row r="45" spans="5:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="45" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E45" s="6"/>
-      <c r="F45" s="9"/>
-    </row>
-    <row r="46" spans="5:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="46" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E46" s="6"/>
-      <c r="F46" s="9"/>
-    </row>
-    <row r="47" spans="5:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="47" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E47" s="6"/>
-      <c r="F47" s="9"/>
-    </row>
-    <row r="48" spans="5:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="48" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E48" s="6"/>
-      <c r="F48" s="9"/>
-    </row>
-    <row r="49" spans="5:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="49" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E49" s="6"/>
-      <c r="F49" s="9"/>
-    </row>
-    <row r="50" spans="5:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="50" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E50" s="6"/>
-      <c r="F50" s="9"/>
-    </row>
-    <row r="51" spans="5:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="51" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E51" s="6"/>
-      <c r="F51" s="9"/>
-    </row>
-    <row r="52" spans="5:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="52" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E52" s="6"/>
-      <c r="F52" s="9"/>
-    </row>
-    <row r="53" spans="5:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="53" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E53" s="6"/>
-      <c r="F53" s="9"/>
-    </row>
-    <row r="54" spans="5:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="54" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E54" s="6"/>
-      <c r="F54" s="9"/>
-    </row>
-    <row r="55" spans="5:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="55" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E55" s="6"/>
-      <c r="F55" s="9"/>
-    </row>
-    <row r="56" spans="5:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="56" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E56" s="6"/>
-      <c r="F56" s="9"/>
-    </row>
-    <row r="57" spans="5:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="57" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E57" s="6"/>
-      <c r="F57" s="9"/>
-    </row>
-    <row r="58" spans="5:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="58" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E58" s="6"/>
-      <c r="F58" s="9"/>
-    </row>
-    <row r="59" spans="5:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="59" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E59" s="6"/>
-      <c r="F59" s="9"/>
-    </row>
-    <row r="60" spans="5:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="60" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E60" s="6"/>
-      <c r="F60" s="9"/>
-    </row>
-    <row r="61" spans="5:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="61" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E61" s="6"/>
-      <c r="F61" s="9"/>
-    </row>
-    <row r="62" spans="5:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="62" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E62" s="6"/>
-      <c r="F62" s="9"/>
-    </row>
-    <row r="63" spans="5:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="63" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E63" s="6"/>
-      <c r="F63" s="9"/>
-    </row>
-    <row r="64" spans="5:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="64" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E64" s="6"/>
-      <c r="F64" s="9"/>
-    </row>
-    <row r="65" spans="5:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="65" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E65" s="6"/>
-      <c r="F65" s="9"/>
-    </row>
-    <row r="66" spans="5:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="66" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E66" s="6"/>
-      <c r="F66" s="9"/>
-    </row>
-    <row r="67" spans="5:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="67" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E67" s="6"/>
-      <c r="F67" s="9"/>
-    </row>
-    <row r="68" spans="5:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="68" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E68" s="6"/>
-      <c r="F68" s="9"/>
-    </row>
-    <row r="69" spans="5:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="69" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E69" s="6"/>
-      <c r="F69" s="9"/>
-    </row>
-    <row r="70" spans="5:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="70" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E70" s="6"/>
-      <c r="F70" s="9"/>
-    </row>
-    <row r="71" spans="5:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="71" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E71" s="6"/>
-      <c r="F71" s="9"/>
-    </row>
-    <row r="72" spans="5:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="72" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E72" s="6"/>
-      <c r="F72" s="9"/>
-    </row>
-    <row r="73" spans="5:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="73" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E73" s="6"/>
-      <c r="F73" s="9"/>
-    </row>
-    <row r="74" spans="5:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="74" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E74" s="6"/>
-      <c r="F74" s="9"/>
-    </row>
-    <row r="75" spans="5:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="75" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E75" s="6"/>
-      <c r="F75" s="9"/>
-    </row>
-    <row r="76" spans="5:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="76" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E76" s="6"/>
-      <c r="F76" s="9"/>
-    </row>
-    <row r="77" spans="5:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="77" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E77" s="6"/>
-      <c r="F77" s="9"/>
-    </row>
-    <row r="78" spans="5:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="78" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E78" s="6"/>
-      <c r="F78" s="9"/>
-    </row>
-    <row r="79" spans="5:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="79" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E79" s="6"/>
-      <c r="F79" s="9"/>
-    </row>
-    <row r="80" spans="5:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="80" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E80" s="6"/>
-      <c r="F80" s="9"/>
-    </row>
-    <row r="81" spans="5:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="81" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E81" s="6"/>
-      <c r="F81" s="9"/>
-    </row>
-    <row r="82" spans="5:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="82" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E82" s="6"/>
-      <c r="F82" s="9"/>
-    </row>
-    <row r="83" spans="5:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="83" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E83" s="6"/>
-      <c r="F83" s="9"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -14799,7 +15322,7 @@
       <c r="K4" s="6" t="s">
         <v>165</v>
       </c>
-      <c r="L4" s="9">
+      <c r="L4">
         <v>2121</v>
       </c>
     </row>
@@ -14807,7 +15330,7 @@
       <c r="K5" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="L5" s="9">
+      <c r="L5">
         <v>1407</v>
       </c>
     </row>
@@ -14815,7 +15338,7 @@
       <c r="K6" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="L6" s="9">
+      <c r="L6">
         <v>1065</v>
       </c>
     </row>
@@ -14823,7 +15346,7 @@
       <c r="K7" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="L7" s="9">
+      <c r="L7">
         <v>786</v>
       </c>
     </row>
@@ -14831,7 +15354,7 @@
       <c r="K8" s="6" t="s">
         <v>116</v>
       </c>
-      <c r="L8" s="9">
+      <c r="L8">
         <v>607</v>
       </c>
     </row>
@@ -14839,7 +15362,7 @@
       <c r="K9" s="6" t="s">
         <v>135</v>
       </c>
-      <c r="L9" s="9">
+      <c r="L9">
         <v>4253</v>
       </c>
     </row>
@@ -14847,7 +15370,7 @@
       <c r="K10" s="6" t="s">
         <v>193</v>
       </c>
-      <c r="L10" s="9">
+      <c r="L10">
         <v>3005</v>
       </c>
     </row>
@@ -14855,7 +15378,7 @@
       <c r="K11" s="6" t="s">
         <v>223</v>
       </c>
-      <c r="L11" s="9">
+      <c r="L11">
         <v>8337</v>
       </c>
     </row>
@@ -14863,7 +15386,7 @@
       <c r="K12" s="6" t="s">
         <v>124</v>
       </c>
-      <c r="L12" s="9">
+      <c r="L12">
         <v>2194</v>
       </c>
     </row>
@@ -14871,7 +15394,7 @@
       <c r="K13" s="6" t="s">
         <v>251</v>
       </c>
-      <c r="L13" s="9">
+      <c r="L13">
         <v>1082</v>
       </c>
     </row>
@@ -14879,7 +15402,7 @@
       <c r="K14" s="6" t="s">
         <v>453</v>
       </c>
-      <c r="L14" s="9">
+      <c r="L14">
         <v>24857</v>
       </c>
     </row>
@@ -14903,7 +15426,7 @@
       <c r="A18" s="6" t="s">
         <v>165</v>
       </c>
-      <c r="B18" s="9">
+      <c r="B18">
         <v>1</v>
       </c>
     </row>
@@ -14911,7 +15434,7 @@
       <c r="A19" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="B19" s="9">
+      <c r="B19">
         <v>3</v>
       </c>
     </row>
@@ -14919,7 +15442,7 @@
       <c r="A20" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="B20" s="9">
+      <c r="B20">
         <v>2</v>
       </c>
     </row>
@@ -14927,7 +15450,7 @@
       <c r="A21" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="B21" s="9">
+      <c r="B21">
         <v>1</v>
       </c>
     </row>
@@ -14935,7 +15458,7 @@
       <c r="A22" s="6" t="s">
         <v>116</v>
       </c>
-      <c r="B22" s="9">
+      <c r="B22">
         <v>2</v>
       </c>
     </row>
@@ -14943,7 +15466,7 @@
       <c r="A23" s="6" t="s">
         <v>135</v>
       </c>
-      <c r="B23" s="9">
+      <c r="B23">
         <v>7</v>
       </c>
     </row>
@@ -14951,7 +15474,7 @@
       <c r="A24" s="6" t="s">
         <v>223</v>
       </c>
-      <c r="B24" s="9">
+      <c r="B24">
         <v>5</v>
       </c>
     </row>
@@ -14959,7 +15482,7 @@
       <c r="A25" s="6" t="s">
         <v>124</v>
       </c>
-      <c r="B25" s="9">
+      <c r="B25">
         <v>3</v>
       </c>
     </row>
@@ -14967,7 +15490,7 @@
       <c r="A26" s="6" t="s">
         <v>251</v>
       </c>
-      <c r="B26" s="9">
+      <c r="B26">
         <v>3</v>
       </c>
     </row>
@@ -14975,7 +15498,7 @@
       <c r="A27" s="6" t="s">
         <v>453</v>
       </c>
-      <c r="B27" s="9">
+      <c r="B27">
         <v>27</v>
       </c>
     </row>
@@ -14987,11 +15510,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F8DE5309-DC6B-B148-AB7D-A0DB869E6EAB}">
-  <sheetPr codeName="Sheet3"/>
+  <sheetPr codeName="Sheet3" filterMode="1"/>
   <dimension ref="A1:R391"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="D75" sqref="D75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -15039,7 +15562,7 @@
       <c r="N1" s="4"/>
       <c r="O1" s="4"/>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>206</v>
       </c>
@@ -15073,7 +15596,7 @@
       <c r="O2" s="5"/>
       <c r="R2" s="1"/>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>227</v>
       </c>
@@ -15107,7 +15630,7 @@
       <c r="O3" s="5"/>
       <c r="R3" s="1"/>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
         <v>266</v>
       </c>
@@ -15141,7 +15664,7 @@
       <c r="O4" s="5"/>
       <c r="R4" s="1"/>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
         <v>227</v>
       </c>
@@ -15175,7 +15698,7 @@
       <c r="O5" s="5"/>
       <c r="R5" s="1"/>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
         <v>266</v>
       </c>
@@ -15209,7 +15732,7 @@
       <c r="O6" s="5"/>
       <c r="R6" s="1"/>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
         <v>227</v>
       </c>
@@ -15243,7 +15766,7 @@
       <c r="O7" s="5"/>
       <c r="R7" s="1"/>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
         <v>266</v>
       </c>
@@ -15277,7 +15800,7 @@
       <c r="O8" s="5"/>
       <c r="R8" s="1"/>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
         <v>8</v>
       </c>
@@ -15311,7 +15834,7 @@
       <c r="O9" s="5"/>
       <c r="R9" s="1"/>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
         <v>12</v>
       </c>
@@ -15345,7 +15868,7 @@
       <c r="O10" s="5"/>
       <c r="R10" s="1"/>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
         <v>19</v>
       </c>
@@ -15379,7 +15902,7 @@
       <c r="O11" s="5"/>
       <c r="R11" s="1"/>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
         <v>26</v>
       </c>
@@ -15413,7 +15936,7 @@
       <c r="O12" s="5"/>
       <c r="R12" s="1"/>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A13" s="7" t="s">
         <v>450</v>
       </c>
@@ -15447,7 +15970,7 @@
       <c r="O13" s="5"/>
       <c r="R13" s="1"/>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
         <v>8</v>
       </c>
@@ -15481,7 +16004,7 @@
       <c r="O14" s="5"/>
       <c r="R14" s="1"/>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="s">
         <v>12</v>
       </c>
@@ -15515,7 +16038,7 @@
       <c r="O15" s="5"/>
       <c r="R15" s="1"/>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
         <v>19</v>
       </c>
@@ -15549,7 +16072,7 @@
       <c r="O16" s="5"/>
       <c r="R16" s="1"/>
     </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A17" s="3" t="s">
         <v>26</v>
       </c>
@@ -15583,7 +16106,7 @@
       <c r="O17" s="5"/>
       <c r="R17" s="1"/>
     </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A18" s="7" t="s">
         <v>450</v>
       </c>
@@ -15617,7 +16140,7 @@
       <c r="O18" s="5"/>
       <c r="R18" s="1"/>
     </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A19" s="3" t="s">
         <v>125</v>
       </c>
@@ -15651,7 +16174,7 @@
       <c r="O19" s="5"/>
       <c r="R19" s="1"/>
     </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A20" s="3" t="s">
         <v>134</v>
       </c>
@@ -15685,7 +16208,7 @@
       <c r="O20" s="5"/>
       <c r="R20" s="1"/>
     </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A21" s="3" t="s">
         <v>12</v>
       </c>
@@ -15719,7 +16242,7 @@
       <c r="O21" s="5"/>
       <c r="R21" s="1"/>
     </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A22" s="3" t="s">
         <v>8</v>
       </c>
@@ -15753,7 +16276,7 @@
       <c r="O22" s="5"/>
       <c r="R22" s="1"/>
     </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A23" s="3" t="s">
         <v>26</v>
       </c>
@@ -15787,7 +16310,7 @@
       <c r="O23" s="5"/>
       <c r="R23" s="1"/>
     </row>
-    <row r="24" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A24" s="3" t="s">
         <v>12</v>
       </c>
@@ -15821,7 +16344,7 @@
       <c r="O24" s="5"/>
       <c r="R24" s="1"/>
     </row>
-    <row r="25" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A25" s="3" t="s">
         <v>8</v>
       </c>
@@ -15855,7 +16378,7 @@
       <c r="O25" s="5"/>
       <c r="R25" s="1"/>
     </row>
-    <row r="26" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A26" s="3" t="s">
         <v>26</v>
       </c>
@@ -15889,7 +16412,7 @@
       <c r="O26" s="5"/>
       <c r="R26" s="1"/>
     </row>
-    <row r="27" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A27" s="7" t="s">
         <v>450</v>
       </c>
@@ -15923,7 +16446,7 @@
       <c r="O27" s="5"/>
       <c r="R27" s="1"/>
     </row>
-    <row r="28" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A28" s="3" t="s">
         <v>125</v>
       </c>
@@ -15957,7 +16480,7 @@
       <c r="O28" s="5"/>
       <c r="R28" s="1"/>
     </row>
-    <row r="29" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A29" s="3" t="s">
         <v>12</v>
       </c>
@@ -15991,7 +16514,7 @@
       <c r="O29" s="5"/>
       <c r="R29" s="1"/>
     </row>
-    <row r="30" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A30" s="3" t="s">
         <v>8</v>
       </c>
@@ -16025,7 +16548,7 @@
       <c r="O30" s="5"/>
       <c r="R30" s="1"/>
     </row>
-    <row r="31" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A31" s="3" t="s">
         <v>19</v>
       </c>
@@ -16059,7 +16582,7 @@
       <c r="O31" s="5"/>
       <c r="R31" s="1"/>
     </row>
-    <row r="32" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A32" s="3" t="s">
         <v>26</v>
       </c>
@@ -16093,7 +16616,7 @@
       <c r="O32" s="5"/>
       <c r="R32" s="1"/>
     </row>
-    <row r="33" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A33" s="3" t="s">
         <v>12</v>
       </c>
@@ -16127,7 +16650,7 @@
       <c r="O33" s="5"/>
       <c r="R33" s="1"/>
     </row>
-    <row r="34" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A34" s="3" t="s">
         <v>8</v>
       </c>
@@ -16161,7 +16684,7 @@
       <c r="O34" s="5"/>
       <c r="R34" s="1"/>
     </row>
-    <row r="35" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A35" s="3" t="s">
         <v>19</v>
       </c>
@@ -16195,7 +16718,7 @@
       <c r="O35" s="5"/>
       <c r="R35" s="1"/>
     </row>
-    <row r="36" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A36" s="3" t="s">
         <v>26</v>
       </c>
@@ -16229,7 +16752,7 @@
       <c r="O36" s="5"/>
       <c r="R36" s="1"/>
     </row>
-    <row r="37" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A37" s="7" t="s">
         <v>450</v>
       </c>
@@ -16263,7 +16786,7 @@
       <c r="O37" s="5"/>
       <c r="R37" s="1"/>
     </row>
-    <row r="38" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A38" s="3" t="s">
         <v>399</v>
       </c>
@@ -16297,7 +16820,7 @@
       <c r="O38" s="5"/>
       <c r="R38" s="1"/>
     </row>
-    <row r="39" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A39" s="3" t="s">
         <v>117</v>
       </c>
@@ -16331,7 +16854,7 @@
       <c r="O39" s="5"/>
       <c r="R39" s="1"/>
     </row>
-    <row r="40" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A40" s="3" t="s">
         <v>163</v>
       </c>
@@ -16365,7 +16888,7 @@
       <c r="O40" s="5"/>
       <c r="R40" s="1"/>
     </row>
-    <row r="41" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A41" s="3" t="s">
         <v>117</v>
       </c>
@@ -16399,7 +16922,7 @@
       <c r="O41" s="5"/>
       <c r="R41" s="1"/>
     </row>
-    <row r="42" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A42" s="3" t="s">
         <v>117</v>
       </c>
@@ -16433,7 +16956,7 @@
       <c r="O42" s="5"/>
       <c r="R42" s="1"/>
     </row>
-    <row r="43" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A43" s="3" t="s">
         <v>163</v>
       </c>
@@ -16467,7 +16990,7 @@
       <c r="O43" s="5"/>
       <c r="R43" s="1"/>
     </row>
-    <row r="44" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A44" s="3" t="s">
         <v>117</v>
       </c>
@@ -16501,7 +17024,7 @@
       <c r="O44" s="5"/>
       <c r="R44" s="1"/>
     </row>
-    <row r="45" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A45" s="3" t="s">
         <v>163</v>
       </c>
@@ -16535,7 +17058,7 @@
       <c r="O45" s="5"/>
       <c r="R45" s="1"/>
     </row>
-    <row r="46" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A46" s="3" t="s">
         <v>393</v>
       </c>
@@ -16569,7 +17092,7 @@
       <c r="O46" s="5"/>
       <c r="R46" s="1"/>
     </row>
-    <row r="47" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A47" s="3" t="s">
         <v>150</v>
       </c>
@@ -16603,7 +17126,7 @@
       <c r="O47" s="5"/>
       <c r="R47" s="1"/>
     </row>
-    <row r="48" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A48" s="3" t="s">
         <v>155</v>
       </c>
@@ -16637,7 +17160,7 @@
       <c r="O48" s="5"/>
       <c r="R48" s="1"/>
     </row>
-    <row r="49" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A49" s="3" t="s">
         <v>155</v>
       </c>
@@ -16671,7 +17194,7 @@
       <c r="O49" s="5"/>
       <c r="R49" s="1"/>
     </row>
-    <row r="50" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A50" s="3" t="s">
         <v>150</v>
       </c>
@@ -16705,7 +17228,7 @@
       <c r="O50" s="5"/>
       <c r="R50" s="1"/>
     </row>
-    <row r="51" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A51" s="3" t="s">
         <v>150</v>
       </c>
@@ -16739,7 +17262,7 @@
       <c r="O51" s="5"/>
       <c r="R51" s="1"/>
     </row>
-    <row r="52" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A52" s="3" t="s">
         <v>411</v>
       </c>
@@ -16773,7 +17296,7 @@
       <c r="O52" s="5"/>
       <c r="R52" s="1"/>
     </row>
-    <row r="53" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A53" s="3" t="s">
         <v>44</v>
       </c>
@@ -16807,7 +17330,7 @@
       <c r="O53" s="5"/>
       <c r="R53" s="1"/>
     </row>
-    <row r="54" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A54" s="3" t="s">
         <v>99</v>
       </c>
@@ -16841,7 +17364,7 @@
       <c r="O54" s="5"/>
       <c r="R54" s="1"/>
     </row>
-    <row r="55" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A55" s="3" t="s">
         <v>44</v>
       </c>
@@ -16875,7 +17398,7 @@
       <c r="O55" s="5"/>
       <c r="R55" s="1"/>
     </row>
-    <row r="56" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A56" s="3" t="s">
         <v>129</v>
       </c>
@@ -16909,7 +17432,7 @@
       <c r="O56" s="5"/>
       <c r="R56" s="1"/>
     </row>
-    <row r="57" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A57" s="3" t="s">
         <v>129</v>
       </c>
@@ -16943,7 +17466,7 @@
       <c r="O57" s="5"/>
       <c r="R57" s="1"/>
     </row>
-    <row r="58" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A58" s="3" t="s">
         <v>99</v>
       </c>
@@ -16977,7 +17500,7 @@
       <c r="O58" s="5"/>
       <c r="R58" s="1"/>
     </row>
-    <row r="59" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A59" s="3" t="s">
         <v>129</v>
       </c>
@@ -17011,7 +17534,7 @@
       <c r="O59" s="5"/>
       <c r="R59" s="1"/>
     </row>
-    <row r="60" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A60" s="3" t="s">
         <v>44</v>
       </c>
@@ -17045,7 +17568,7 @@
       <c r="O60" s="5"/>
       <c r="R60" s="1"/>
     </row>
-    <row r="61" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A61" s="3" t="s">
         <v>99</v>
       </c>
@@ -17079,7 +17602,7 @@
       <c r="O61" s="5"/>
       <c r="R61" s="1"/>
     </row>
-    <row r="62" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A62" s="3" t="s">
         <v>44</v>
       </c>
@@ -17113,7 +17636,7 @@
       <c r="O62" s="5"/>
       <c r="R62" s="1"/>
     </row>
-    <row r="63" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A63" s="3" t="s">
         <v>129</v>
       </c>
@@ -17157,6 +17680,9 @@
       <c r="C64" s="5" t="s">
         <v>282</v>
       </c>
+      <c r="D64" s="5" t="s">
+        <v>282</v>
+      </c>
       <c r="E64" s="5">
         <v>1541601394</v>
       </c>
@@ -17188,6 +17714,9 @@
       <c r="C65" s="5" t="s">
         <v>282</v>
       </c>
+      <c r="D65" s="5" t="s">
+        <v>282</v>
+      </c>
       <c r="E65" s="5">
         <v>1541601394</v>
       </c>
@@ -17209,7 +17738,7 @@
       <c r="O65" s="5"/>
       <c r="R65" s="1"/>
     </row>
-    <row r="66" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A66" s="3" t="s">
         <v>101</v>
       </c>
@@ -17243,7 +17772,7 @@
       <c r="O66" s="5"/>
       <c r="R66" s="1"/>
     </row>
-    <row r="67" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A67" s="3" t="s">
         <v>276</v>
       </c>
@@ -17277,7 +17806,7 @@
       <c r="O67" s="5"/>
       <c r="R67" s="1"/>
     </row>
-    <row r="68" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A68" s="3" t="s">
         <v>276</v>
       </c>
@@ -17311,7 +17840,7 @@
       <c r="O68" s="5"/>
       <c r="R68" s="1"/>
     </row>
-    <row r="69" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A69" s="3" t="s">
         <v>314</v>
       </c>
@@ -17355,6 +17884,9 @@
       <c r="C70" s="5" t="s">
         <v>42</v>
       </c>
+      <c r="D70" s="5" t="s">
+        <v>239</v>
+      </c>
       <c r="E70" s="5" t="s">
         <v>43</v>
       </c>
@@ -17386,6 +17918,9 @@
       <c r="C71" s="5" t="s">
         <v>42</v>
       </c>
+      <c r="D71" s="5" t="s">
+        <v>239</v>
+      </c>
       <c r="E71" s="5" t="s">
         <v>43</v>
       </c>
@@ -17417,6 +17952,9 @@
       <c r="C72" s="5" t="s">
         <v>42</v>
       </c>
+      <c r="D72" s="5" t="s">
+        <v>239</v>
+      </c>
       <c r="E72" s="5" t="s">
         <v>43</v>
       </c>
@@ -17448,6 +17986,9 @@
       <c r="C73" s="5" t="s">
         <v>42</v>
       </c>
+      <c r="D73" s="5" t="s">
+        <v>239</v>
+      </c>
       <c r="E73" s="5" t="s">
         <v>367</v>
       </c>
@@ -17479,6 +18020,9 @@
       <c r="C74" s="5" t="s">
         <v>42</v>
       </c>
+      <c r="D74" s="5" t="s">
+        <v>239</v>
+      </c>
       <c r="E74" s="5" t="s">
         <v>367</v>
       </c>
@@ -17510,6 +18054,9 @@
       <c r="C75" s="5" t="s">
         <v>42</v>
       </c>
+      <c r="D75" s="5" t="s">
+        <v>239</v>
+      </c>
       <c r="E75" s="5" t="s">
         <v>43</v>
       </c>
@@ -17531,7 +18078,7 @@
       <c r="O75" s="5"/>
       <c r="R75" s="1"/>
     </row>
-    <row r="76" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A76" s="3" t="s">
         <v>237</v>
       </c>
@@ -17565,7 +18112,7 @@
       <c r="O76" s="5"/>
       <c r="R76" s="1"/>
     </row>
-    <row r="77" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A77" s="3" t="s">
         <v>237</v>
       </c>
@@ -17599,7 +18146,7 @@
       <c r="O77" s="5"/>
       <c r="R77" s="1"/>
     </row>
-    <row r="78" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A78" s="3" t="s">
         <v>364</v>
       </c>
@@ -17633,7 +18180,7 @@
       <c r="O78" s="5"/>
       <c r="R78" s="1"/>
     </row>
-    <row r="79" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A79" s="3" t="s">
         <v>364</v>
       </c>
@@ -17667,7 +18214,7 @@
       <c r="O79" s="5"/>
       <c r="R79" s="1"/>
     </row>
-    <row r="80" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A80" s="3" t="s">
         <v>446</v>
       </c>
@@ -17701,7 +18248,7 @@
       <c r="O80" s="5"/>
       <c r="R80" s="1"/>
     </row>
-    <row r="81" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A81" s="3" t="s">
         <v>61</v>
       </c>
@@ -17735,7 +18282,7 @@
       <c r="O81" s="5"/>
       <c r="R81" s="1"/>
     </row>
-    <row r="82" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A82" s="3" t="s">
         <v>61</v>
       </c>
@@ -17769,7 +18316,7 @@
       <c r="O82" s="5"/>
       <c r="R82" s="1"/>
     </row>
-    <row r="83" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A83" s="3" t="s">
         <v>323</v>
       </c>
@@ -17803,7 +18350,7 @@
       <c r="O83" s="5"/>
       <c r="R83" s="1"/>
     </row>
-    <row r="84" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A84" s="3" t="s">
         <v>373</v>
       </c>
@@ -17837,7 +18384,7 @@
       <c r="O84" s="5"/>
       <c r="R84" s="1"/>
     </row>
-    <row r="85" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A85" s="3" t="s">
         <v>373</v>
       </c>
@@ -17871,7 +18418,7 @@
       <c r="O85" s="5"/>
       <c r="R85" s="1"/>
     </row>
-    <row r="86" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A86" s="3" t="s">
         <v>61</v>
       </c>
@@ -17905,7 +18452,7 @@
       <c r="O86" s="5"/>
       <c r="R86" s="1"/>
     </row>
-    <row r="87" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A87" s="3" t="s">
         <v>406</v>
       </c>
@@ -17949,6 +18496,9 @@
       <c r="C88" s="5" t="s">
         <v>363</v>
       </c>
+      <c r="D88" s="5" t="s">
+        <v>363</v>
+      </c>
       <c r="E88" s="5">
         <v>1335004882</v>
       </c>
@@ -17980,6 +18530,9 @@
       <c r="C89" s="5" t="s">
         <v>363</v>
       </c>
+      <c r="D89" s="5" t="s">
+        <v>363</v>
+      </c>
       <c r="E89" s="5">
         <v>1335004882</v>
       </c>
@@ -18001,7 +18554,7 @@
       <c r="O89" s="5"/>
       <c r="R89" s="1"/>
     </row>
-    <row r="90" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A90" s="3" t="s">
         <v>33</v>
       </c>
@@ -18035,7 +18588,7 @@
       <c r="O90" s="5"/>
       <c r="R90" s="1"/>
     </row>
-    <row r="91" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A91" s="3" t="s">
         <v>33</v>
       </c>
@@ -18069,7 +18622,7 @@
       <c r="O91" s="5"/>
       <c r="R91" s="1"/>
     </row>
-    <row r="92" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A92" s="3" t="s">
         <v>136</v>
       </c>
@@ -18103,7 +18656,7 @@
       <c r="O92" s="5"/>
       <c r="R92" s="1"/>
     </row>
-    <row r="93" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A93" s="3" t="s">
         <v>33</v>
       </c>
@@ -18137,7 +18690,7 @@
       <c r="O93" s="5"/>
       <c r="R93" s="1"/>
     </row>
-    <row r="94" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A94" s="3" t="s">
         <v>136</v>
       </c>
@@ -18171,7 +18724,7 @@
       <c r="O94" s="5"/>
       <c r="R94" s="1"/>
     </row>
-    <row r="95" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A95" s="3" t="s">
         <v>33</v>
       </c>
@@ -18205,7 +18758,7 @@
       <c r="O95" s="5"/>
       <c r="R95" s="1"/>
     </row>
-    <row r="96" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A96" s="3" t="s">
         <v>136</v>
       </c>
@@ -18239,7 +18792,7 @@
       <c r="O96" s="5"/>
       <c r="R96" s="1"/>
     </row>
-    <row r="97" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A97" s="3" t="s">
         <v>33</v>
       </c>
@@ -18273,7 +18826,7 @@
       <c r="O97" s="5"/>
       <c r="R97" s="1"/>
     </row>
-    <row r="98" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A98" s="3" t="s">
         <v>136</v>
       </c>
@@ -18307,7 +18860,7 @@
       <c r="O98" s="5"/>
       <c r="R98" s="1"/>
     </row>
-    <row r="99" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A99" s="3" t="s">
         <v>190</v>
       </c>
@@ -18341,7 +18894,7 @@
       <c r="O99" s="5"/>
       <c r="R99" s="1"/>
     </row>
-    <row r="100" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A100" s="3" t="s">
         <v>190</v>
       </c>
@@ -18375,7 +18928,7 @@
       <c r="O100" s="5"/>
       <c r="R100" s="1"/>
     </row>
-    <row r="101" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A101" s="3" t="s">
         <v>340</v>
       </c>
@@ -18409,7 +18962,7 @@
       <c r="O101" s="5"/>
       <c r="R101" s="1"/>
     </row>
-    <row r="102" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A102" s="3" t="s">
         <v>185</v>
       </c>
@@ -18443,7 +18996,7 @@
       <c r="O102" s="5"/>
       <c r="R102" s="1"/>
     </row>
-    <row r="103" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A103" s="3" t="s">
         <v>185</v>
       </c>
@@ -18477,7 +19030,7 @@
       <c r="O103" s="5"/>
       <c r="R103" s="1"/>
     </row>
-    <row r="104" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A104" s="3" t="s">
         <v>64</v>
       </c>
@@ -18511,7 +19064,7 @@
       <c r="O104" s="5"/>
       <c r="R104" s="1"/>
     </row>
-    <row r="105" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A105" s="3" t="s">
         <v>64</v>
       </c>
@@ -18545,7 +19098,7 @@
       <c r="O105" s="5"/>
       <c r="R105" s="1"/>
     </row>
-    <row r="106" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A106" s="3" t="s">
         <v>64</v>
       </c>
@@ -18579,7 +19132,7 @@
       <c r="O106" s="5"/>
       <c r="R106" s="1"/>
     </row>
-    <row r="107" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A107" s="3" t="s">
         <v>64</v>
       </c>
@@ -18613,7 +19166,7 @@
       <c r="O107" s="5"/>
       <c r="R107" s="1"/>
     </row>
-    <row r="108" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A108" s="3" t="s">
         <v>64</v>
       </c>
@@ -18647,7 +19200,7 @@
       <c r="O108" s="5"/>
       <c r="R108" s="1"/>
     </row>
-    <row r="109" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A109" s="3" t="s">
         <v>377</v>
       </c>
@@ -18681,7 +19234,7 @@
       <c r="O109" s="5"/>
       <c r="R109" s="1"/>
     </row>
-    <row r="110" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A110" s="3" t="s">
         <v>64</v>
       </c>
@@ -18715,7 +19268,7 @@
       <c r="O110" s="5"/>
       <c r="R110" s="1"/>
     </row>
-    <row r="111" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A111" s="3" t="s">
         <v>377</v>
       </c>
@@ -18749,7 +19302,7 @@
       <c r="O111" s="5"/>
       <c r="R111" s="1"/>
     </row>
-    <row r="112" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A112" s="3" t="s">
         <v>401</v>
       </c>
@@ -18783,7 +19336,7 @@
       <c r="O112" s="5"/>
       <c r="R112" s="1"/>
     </row>
-    <row r="113" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A113" s="3" t="s">
         <v>224</v>
       </c>
@@ -18817,7 +19370,7 @@
       <c r="O113" s="5"/>
       <c r="R113" s="1"/>
     </row>
-    <row r="114" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A114" s="3" t="s">
         <v>260</v>
       </c>
@@ -18851,7 +19404,7 @@
       <c r="O114" s="5"/>
       <c r="R114" s="1"/>
     </row>
-    <row r="115" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A115" s="3" t="s">
         <v>264</v>
       </c>
@@ -18885,7 +19438,7 @@
       <c r="O115" s="5"/>
       <c r="R115" s="1"/>
     </row>
-    <row r="116" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A116" s="3" t="s">
         <v>273</v>
       </c>
@@ -18919,7 +19472,7 @@
       <c r="O116" s="5"/>
       <c r="R116" s="1"/>
     </row>
-    <row r="117" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A117" s="3" t="s">
         <v>273</v>
       </c>
@@ -18953,7 +19506,7 @@
       <c r="O117" s="5"/>
       <c r="R117" s="1"/>
     </row>
-    <row r="118" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A118" s="3" t="s">
         <v>224</v>
       </c>
@@ -18987,7 +19540,7 @@
       <c r="O118" s="5"/>
       <c r="R118" s="1"/>
     </row>
-    <row r="119" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A119" s="3" t="s">
         <v>350</v>
       </c>
@@ -19021,7 +19574,7 @@
       <c r="O119" s="5"/>
       <c r="R119" s="1"/>
     </row>
-    <row r="120" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A120" s="3" t="s">
         <v>260</v>
       </c>
@@ -19055,7 +19608,7 @@
       <c r="O120" s="5"/>
       <c r="R120" s="1"/>
     </row>
-    <row r="121" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A121" s="3" t="s">
         <v>264</v>
       </c>
@@ -19089,7 +19642,7 @@
       <c r="O121" s="5"/>
       <c r="R121" s="1"/>
     </row>
-    <row r="122" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A122" s="3" t="s">
         <v>357</v>
       </c>
@@ -19123,7 +19676,7 @@
       <c r="O122" s="5"/>
       <c r="R122" s="1"/>
     </row>
-    <row r="123" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A123" s="3" t="s">
         <v>224</v>
       </c>
@@ -19157,7 +19710,7 @@
       <c r="O123" s="5"/>
       <c r="R123" s="1"/>
     </row>
-    <row r="124" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A124" s="3" t="s">
         <v>260</v>
       </c>
@@ -19191,7 +19744,7 @@
       <c r="O124" s="5"/>
       <c r="R124" s="1"/>
     </row>
-    <row r="125" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A125" s="3" t="s">
         <v>264</v>
       </c>
@@ -19225,7 +19778,7 @@
       <c r="O125" s="5"/>
       <c r="R125" s="1"/>
     </row>
-    <row r="126" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A126" s="3" t="s">
         <v>50</v>
       </c>
@@ -19259,7 +19812,7 @@
       <c r="O126" s="5"/>
       <c r="R126" s="1"/>
     </row>
-    <row r="127" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A127" s="3" t="s">
         <v>50</v>
       </c>
@@ -19293,7 +19846,7 @@
       <c r="O127" s="5"/>
       <c r="R127" s="1"/>
     </row>
-    <row r="128" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A128" s="3" t="s">
         <v>329</v>
       </c>
@@ -19327,7 +19880,7 @@
       <c r="O128" s="5"/>
       <c r="R128" s="1"/>
     </row>
-    <row r="129" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A129" s="3" t="s">
         <v>50</v>
       </c>
@@ -19361,7 +19914,7 @@
       <c r="O129" s="5"/>
       <c r="R129" s="1"/>
     </row>
-    <row r="130" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A130" s="3" t="s">
         <v>255</v>
       </c>
@@ -19395,7 +19948,7 @@
       <c r="O130" s="5"/>
       <c r="R130" s="1"/>
     </row>
-    <row r="131" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A131" s="3" t="s">
         <v>331</v>
       </c>
@@ -19429,7 +19982,7 @@
       <c r="O131" s="5"/>
       <c r="R131" s="1"/>
     </row>
-    <row r="132" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A132" s="3" t="s">
         <v>331</v>
       </c>
@@ -19463,7 +20016,7 @@
       <c r="O132" s="5"/>
       <c r="R132" s="1"/>
     </row>
-    <row r="133" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A133" s="3" t="s">
         <v>435</v>
       </c>
@@ -19497,7 +20050,7 @@
       <c r="O133" s="5"/>
       <c r="R133" s="1"/>
     </row>
-    <row r="134" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A134" s="3" t="s">
         <v>255</v>
       </c>
@@ -19531,7 +20084,7 @@
       <c r="O134" s="5"/>
       <c r="R134" s="1"/>
     </row>
-    <row r="135" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A135" s="3" t="s">
         <v>352</v>
       </c>
@@ -19565,7 +20118,7 @@
       <c r="O135" s="5"/>
       <c r="R135" s="1"/>
     </row>
-    <row r="136" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A136" s="3" t="s">
         <v>242</v>
       </c>
@@ -19599,7 +20152,7 @@
       <c r="O136" s="5"/>
       <c r="R136" s="1"/>
     </row>
-    <row r="137" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A137" s="3" t="s">
         <v>242</v>
       </c>
@@ -19633,7 +20186,7 @@
       <c r="O137" s="5"/>
       <c r="R137" s="1"/>
     </row>
-    <row r="138" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A138" s="3" t="s">
         <v>242</v>
       </c>
@@ -19667,7 +20220,7 @@
       <c r="O138" s="5"/>
       <c r="R138" s="1"/>
     </row>
-    <row r="139" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A139" s="3" t="s">
         <v>13</v>
       </c>
@@ -19701,7 +20254,7 @@
       <c r="O139" s="5"/>
       <c r="R139" s="1"/>
     </row>
-    <row r="140" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A140" s="3" t="s">
         <v>13</v>
       </c>
@@ -19735,7 +20288,7 @@
       <c r="O140" s="5"/>
       <c r="R140" s="1"/>
     </row>
-    <row r="141" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A141" s="3" t="s">
         <v>91</v>
       </c>
@@ -19769,7 +20322,7 @@
       <c r="O141" s="5"/>
       <c r="R141" s="1"/>
     </row>
-    <row r="142" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A142" s="3" t="s">
         <v>13</v>
       </c>
@@ -19803,7 +20356,7 @@
       <c r="O142" s="5"/>
       <c r="R142" s="1"/>
     </row>
-    <row r="143" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A143" s="3" t="s">
         <v>91</v>
       </c>
@@ -19837,7 +20390,7 @@
       <c r="O143" s="5"/>
       <c r="R143" s="1"/>
     </row>
-    <row r="144" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A144" s="3" t="s">
         <v>13</v>
       </c>
@@ -19871,7 +20424,7 @@
       <c r="O144" s="5"/>
       <c r="R144" s="1"/>
     </row>
-    <row r="145" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A145" s="3" t="s">
         <v>91</v>
       </c>
@@ -19905,7 +20458,7 @@
       <c r="O145" s="5"/>
       <c r="R145" s="1"/>
     </row>
-    <row r="146" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A146" s="3" t="s">
         <v>13</v>
       </c>
@@ -19939,7 +20492,7 @@
       <c r="O146" s="5"/>
       <c r="R146" s="1"/>
     </row>
-    <row r="147" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A147" s="3" t="s">
         <v>13</v>
       </c>
@@ -19973,7 +20526,7 @@
       <c r="O147" s="5"/>
       <c r="R147" s="1"/>
     </row>
-    <row r="148" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A148" s="3" t="s">
         <v>91</v>
       </c>
@@ -20007,7 +20560,7 @@
       <c r="O148" s="5"/>
       <c r="R148" s="1"/>
     </row>
-    <row r="149" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A149" s="3" t="s">
         <v>37</v>
       </c>
@@ -20041,7 +20594,7 @@
       <c r="O149" s="5"/>
       <c r="R149" s="1"/>
     </row>
-    <row r="150" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A150" s="3" t="s">
         <v>37</v>
       </c>
@@ -20075,7 +20628,7 @@
       <c r="O150" s="5"/>
       <c r="R150" s="1"/>
     </row>
-    <row r="151" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A151" s="3" t="s">
         <v>159</v>
       </c>
@@ -20109,7 +20662,7 @@
       <c r="O151" s="5"/>
       <c r="R151" s="1"/>
     </row>
-    <row r="152" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A152" s="3" t="s">
         <v>37</v>
       </c>
@@ -20143,7 +20696,7 @@
       <c r="O152" s="5"/>
       <c r="R152" s="1"/>
     </row>
-    <row r="153" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A153" s="3" t="s">
         <v>37</v>
       </c>
@@ -20177,7 +20730,7 @@
       <c r="O153" s="5"/>
       <c r="R153" s="1"/>
     </row>
-    <row r="154" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A154" s="3" t="s">
         <v>159</v>
       </c>
@@ -20211,7 +20764,7 @@
       <c r="O154" s="5"/>
       <c r="R154" s="1"/>
     </row>
-    <row r="155" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A155" s="3" t="s">
         <v>37</v>
       </c>
@@ -20245,7 +20798,7 @@
       <c r="O155" s="5"/>
       <c r="R155" s="1"/>
     </row>
-    <row r="156" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A156" s="3" t="s">
         <v>104</v>
       </c>
@@ -20279,7 +20832,7 @@
       <c r="O156" s="5"/>
       <c r="R156" s="1"/>
     </row>
-    <row r="157" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A157" s="3" t="s">
         <v>104</v>
       </c>
@@ -20313,7 +20866,7 @@
       <c r="O157" s="5"/>
       <c r="R157" s="1"/>
     </row>
-    <row r="158" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A158" s="3" t="s">
         <v>312</v>
       </c>
@@ -20347,7 +20900,7 @@
       <c r="O158" s="5"/>
       <c r="R158" s="1"/>
     </row>
-    <row r="159" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A159" s="3" t="s">
         <v>104</v>
       </c>
@@ -20381,7 +20934,7 @@
       <c r="O159" s="5"/>
       <c r="R159" s="1"/>
     </row>
-    <row r="160" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A160" s="3" t="s">
         <v>409</v>
       </c>
@@ -20415,7 +20968,7 @@
       <c r="O160" s="5"/>
       <c r="R160" s="1"/>
     </row>
-    <row r="161" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A161" s="3" t="s">
         <v>141</v>
       </c>
@@ -20449,7 +21002,7 @@
       <c r="O161" s="5"/>
       <c r="R161" s="1"/>
     </row>
-    <row r="162" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A162" s="3" t="s">
         <v>141</v>
       </c>
@@ -20483,7 +21036,7 @@
       <c r="O162" s="5"/>
       <c r="R162" s="1"/>
     </row>
-    <row r="163" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A163" s="3" t="s">
         <v>141</v>
       </c>
@@ -20517,7 +21070,7 @@
       <c r="O163" s="5"/>
       <c r="R163" s="1"/>
     </row>
-    <row r="164" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A164" s="3" t="s">
         <v>30</v>
       </c>
@@ -20551,7 +21104,7 @@
       <c r="O164" s="5"/>
       <c r="R164" s="1"/>
     </row>
-    <row r="165" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A165" s="3" t="s">
         <v>59</v>
       </c>
@@ -20585,7 +21138,7 @@
       <c r="O165" s="5"/>
       <c r="R165" s="1"/>
     </row>
-    <row r="166" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A166" s="3" t="s">
         <v>78</v>
       </c>
@@ -20619,7 +21172,7 @@
       <c r="O166" s="5"/>
       <c r="R166" s="1"/>
     </row>
-    <row r="167" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A167" s="3" t="s">
         <v>30</v>
       </c>
@@ -20653,7 +21206,7 @@
       <c r="O167" s="5"/>
       <c r="R167" s="1"/>
     </row>
-    <row r="168" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A168" s="3" t="s">
         <v>59</v>
       </c>
@@ -20687,7 +21240,7 @@
       <c r="O168" s="5"/>
       <c r="R168" s="1"/>
     </row>
-    <row r="169" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A169" s="3" t="s">
         <v>78</v>
       </c>
@@ -20721,7 +21274,7 @@
       <c r="O169" s="5"/>
       <c r="R169" s="1"/>
     </row>
-    <row r="170" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A170" s="3" t="s">
         <v>78</v>
       </c>
@@ -20755,7 +21308,7 @@
       <c r="O170" s="5"/>
       <c r="R170" s="1"/>
     </row>
-    <row r="171" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A171" s="3" t="s">
         <v>78</v>
       </c>
@@ -20789,7 +21342,7 @@
       <c r="O171" s="5"/>
       <c r="R171" s="1"/>
     </row>
-    <row r="172" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A172" s="3" t="s">
         <v>305</v>
       </c>
@@ -20823,7 +21376,7 @@
       <c r="O172" s="5"/>
       <c r="R172" s="1"/>
     </row>
-    <row r="173" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A173" s="3" t="s">
         <v>59</v>
       </c>
@@ -20857,7 +21410,7 @@
       <c r="O173" s="5"/>
       <c r="R173" s="1"/>
     </row>
-    <row r="174" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A174" s="3" t="s">
         <v>59</v>
       </c>
@@ -20891,7 +21444,7 @@
       <c r="O174" s="5"/>
       <c r="R174" s="1"/>
     </row>
-    <row r="175" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A175" s="3" t="s">
         <v>80</v>
       </c>
@@ -20925,7 +21478,7 @@
       <c r="O175" s="5"/>
       <c r="R175" s="1"/>
     </row>
-    <row r="176" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A176" s="3" t="s">
         <v>80</v>
       </c>
@@ -20959,7 +21512,7 @@
       <c r="O176" s="5"/>
       <c r="R176" s="1"/>
     </row>
-    <row r="177" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A177" s="3" t="s">
         <v>17</v>
       </c>
@@ -20993,7 +21546,7 @@
       <c r="O177" s="5"/>
       <c r="R177" s="1"/>
     </row>
-    <row r="178" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A178" s="3" t="s">
         <v>17</v>
       </c>
@@ -21027,7 +21580,7 @@
       <c r="O178" s="5"/>
       <c r="R178" s="1"/>
     </row>
-    <row r="179" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A179" s="3" t="s">
         <v>17</v>
       </c>
@@ -21061,7 +21614,7 @@
       <c r="O179" s="5"/>
       <c r="R179" s="1"/>
     </row>
-    <row r="180" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A180" s="3" t="s">
         <v>17</v>
       </c>
@@ -21095,7 +21648,7 @@
       <c r="O180" s="5"/>
       <c r="R180" s="1"/>
     </row>
-    <row r="181" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A181" s="3" t="s">
         <v>17</v>
       </c>
@@ -21129,7 +21682,7 @@
       <c r="O181" s="5"/>
       <c r="R181" s="1"/>
     </row>
-    <row r="182" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A182" s="3" t="s">
         <v>17</v>
       </c>
@@ -21163,7 +21716,7 @@
       <c r="O182" s="5"/>
       <c r="R182" s="1"/>
     </row>
-    <row r="183" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A183" s="3" t="s">
         <v>194</v>
       </c>
@@ -21197,7 +21750,7 @@
       <c r="O183" s="5"/>
       <c r="R183" s="1"/>
     </row>
-    <row r="184" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A184" s="3" t="s">
         <v>194</v>
       </c>
@@ -21231,7 +21784,7 @@
       <c r="O184" s="5"/>
       <c r="R184" s="1"/>
     </row>
-    <row r="185" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A185" s="3" t="s">
         <v>326</v>
       </c>
@@ -21265,7 +21818,7 @@
       <c r="O185" s="5"/>
       <c r="R185" s="1"/>
     </row>
-    <row r="186" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A186" s="3" t="s">
         <v>27</v>
       </c>
@@ -21299,7 +21852,7 @@
       <c r="O186" s="5"/>
       <c r="R186" s="1"/>
     </row>
-    <row r="187" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A187" s="3" t="s">
         <v>27</v>
       </c>
@@ -21333,7 +21886,7 @@
       <c r="O187" s="5"/>
       <c r="R187" s="1"/>
     </row>
-    <row r="188" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A188" s="3" t="s">
         <v>177</v>
       </c>
@@ -21367,7 +21920,7 @@
       <c r="O188" s="5"/>
       <c r="R188" s="1"/>
     </row>
-    <row r="189" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A189" s="3" t="s">
         <v>27</v>
       </c>
@@ -21401,7 +21954,7 @@
       <c r="O189" s="5"/>
       <c r="R189" s="1"/>
     </row>
-    <row r="190" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A190" s="3" t="s">
         <v>278</v>
       </c>
@@ -21435,7 +21988,7 @@
       <c r="O190" s="5"/>
       <c r="R190" s="1"/>
     </row>
-    <row r="191" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A191" s="3" t="s">
         <v>27</v>
       </c>
@@ -21469,7 +22022,7 @@
       <c r="O191" s="5"/>
       <c r="R191" s="1"/>
     </row>
-    <row r="192" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A192" s="3" t="s">
         <v>278</v>
       </c>
@@ -21503,7 +22056,7 @@
       <c r="O192" s="5"/>
       <c r="R192" s="1"/>
     </row>
-    <row r="193" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A193" s="3" t="s">
         <v>177</v>
       </c>
@@ -21537,7 +22090,7 @@
       <c r="O193" s="5"/>
       <c r="R193" s="1"/>
     </row>
-    <row r="194" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A194" s="3" t="s">
         <v>27</v>
       </c>
@@ -21571,7 +22124,7 @@
       <c r="O194" s="5"/>
       <c r="R194" s="1"/>
     </row>
-    <row r="195" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A195" s="3" t="s">
         <v>177</v>
       </c>
@@ -21605,7 +22158,7 @@
       <c r="O195" s="5"/>
       <c r="R195" s="1"/>
     </row>
-    <row r="196" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A196" s="3" t="s">
         <v>138</v>
       </c>
@@ -21639,7 +22192,7 @@
       <c r="O196" s="5"/>
       <c r="R196" s="1"/>
     </row>
-    <row r="197" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A197" s="3" t="s">
         <v>161</v>
       </c>
@@ -21673,7 +22226,7 @@
       <c r="O197" s="5"/>
       <c r="R197" s="1"/>
     </row>
-    <row r="198" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A198" s="3" t="s">
         <v>138</v>
       </c>
@@ -21707,7 +22260,7 @@
       <c r="O198" s="5"/>
       <c r="R198" s="1"/>
     </row>
-    <row r="199" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A199" s="3" t="s">
         <v>382</v>
       </c>
@@ -21741,7 +22294,7 @@
       <c r="O199" s="5"/>
       <c r="R199" s="1"/>
     </row>
-    <row r="200" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A200" s="3" t="s">
         <v>382</v>
       </c>
@@ -21775,7 +22328,7 @@
       <c r="O200" s="5"/>
       <c r="R200" s="1"/>
     </row>
-    <row r="201" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A201" s="3" t="s">
         <v>289</v>
       </c>
@@ -21809,7 +22362,7 @@
       <c r="O201" s="5"/>
       <c r="R201" s="1"/>
     </row>
-    <row r="202" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A202" s="3" t="s">
         <v>391</v>
       </c>
@@ -21843,7 +22396,7 @@
       <c r="O202" s="5"/>
       <c r="R202" s="1"/>
     </row>
-    <row r="203" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A203" s="3" t="s">
         <v>336</v>
       </c>
@@ -21877,7 +22430,7 @@
       <c r="O203" s="5"/>
       <c r="R203" s="1"/>
     </row>
-    <row r="204" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A204" s="3" t="s">
         <v>431</v>
       </c>
@@ -21911,7 +22464,7 @@
       <c r="O204" s="5"/>
       <c r="R204" s="1"/>
     </row>
-    <row r="205" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A205" s="3" t="s">
         <v>439</v>
       </c>
@@ -21945,7 +22498,7 @@
       <c r="O205" s="5"/>
       <c r="R205" s="1"/>
     </row>
-    <row r="206" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A206" s="3" t="s">
         <v>448</v>
       </c>
@@ -21979,7 +22532,7 @@
       <c r="O206" s="5"/>
       <c r="R206" s="1"/>
     </row>
-    <row r="207" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A207" s="3" t="s">
         <v>211</v>
       </c>
@@ -22013,7 +22566,7 @@
       <c r="O207" s="5"/>
       <c r="R207" s="1"/>
     </row>
-    <row r="208" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A208" s="3" t="s">
         <v>433</v>
       </c>
@@ -22047,7 +22600,7 @@
       <c r="O208" s="5"/>
       <c r="R208" s="1"/>
     </row>
-    <row r="209" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A209" s="3" t="s">
         <v>174</v>
       </c>
@@ -22081,7 +22634,7 @@
       <c r="O209" s="5"/>
       <c r="R209" s="1"/>
     </row>
-    <row r="210" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A210" s="3" t="s">
         <v>307</v>
       </c>
@@ -22115,7 +22668,7 @@
       <c r="O210" s="5"/>
       <c r="R210" s="1"/>
     </row>
-    <row r="211" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A211" s="3" t="s">
         <v>174</v>
       </c>
@@ -22149,7 +22702,7 @@
       <c r="O211" s="5"/>
       <c r="R211" s="1"/>
     </row>
-    <row r="212" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A212" s="3" t="s">
         <v>174</v>
       </c>
@@ -22183,7 +22736,7 @@
       <c r="O212" s="5"/>
       <c r="R212" s="1"/>
     </row>
-    <row r="213" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A213" s="3" t="s">
         <v>268</v>
       </c>
@@ -22217,7 +22770,7 @@
       <c r="O213" s="5"/>
       <c r="R213" s="1"/>
     </row>
-    <row r="214" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A214" s="3" t="s">
         <v>422</v>
       </c>
@@ -22251,7 +22804,7 @@
       <c r="O214" s="5"/>
       <c r="R214" s="1"/>
     </row>
-    <row r="215" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A215" s="3" t="s">
         <v>309</v>
       </c>
@@ -22285,7 +22838,7 @@
       <c r="O215" s="5"/>
       <c r="R215" s="1"/>
     </row>
-    <row r="216" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A216" s="3" t="s">
         <v>420</v>
       </c>
@@ -22319,7 +22872,7 @@
       <c r="O216" s="5"/>
       <c r="R216" s="1"/>
     </row>
-    <row r="217" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A217" s="3" t="s">
         <v>23</v>
       </c>
@@ -22353,7 +22906,7 @@
       <c r="O217" s="5"/>
       <c r="R217" s="1"/>
     </row>
-    <row r="218" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A218" s="3" t="s">
         <v>23</v>
       </c>
@@ -22387,7 +22940,7 @@
       <c r="O218" s="5"/>
       <c r="R218" s="1"/>
     </row>
-    <row r="219" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A219" s="3" t="s">
         <v>120</v>
       </c>
@@ -22421,7 +22974,7 @@
       <c r="O219" s="5"/>
       <c r="R219" s="1"/>
     </row>
-    <row r="220" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A220" s="3" t="s">
         <v>122</v>
       </c>
@@ -22455,7 +23008,7 @@
       <c r="O220" s="5"/>
       <c r="R220" s="1"/>
     </row>
-    <row r="221" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A221" s="3" t="s">
         <v>23</v>
       </c>
@@ -22489,7 +23042,7 @@
       <c r="O221" s="5"/>
       <c r="R221" s="1"/>
     </row>
-    <row r="222" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A222" s="3" t="s">
         <v>122</v>
       </c>
@@ -22523,7 +23076,7 @@
       <c r="O222" s="5"/>
       <c r="R222" s="1"/>
     </row>
-    <row r="223" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A223" s="3" t="s">
         <v>23</v>
       </c>
@@ -22557,7 +23110,7 @@
       <c r="O223" s="5"/>
       <c r="R223" s="1"/>
     </row>
-    <row r="224" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A224" s="3" t="s">
         <v>122</v>
       </c>
@@ -22591,7 +23144,7 @@
       <c r="O224" s="5"/>
       <c r="R224" s="1"/>
     </row>
-    <row r="225" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A225" s="3" t="s">
         <v>120</v>
       </c>
@@ -22625,7 +23178,7 @@
       <c r="O225" s="5"/>
       <c r="R225" s="1"/>
     </row>
-    <row r="226" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A226" s="3" t="s">
         <v>23</v>
       </c>
@@ -22659,7 +23212,7 @@
       <c r="O226" s="5"/>
       <c r="R226" s="1"/>
     </row>
-    <row r="227" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A227" s="3" t="s">
         <v>23</v>
       </c>
@@ -22693,7 +23246,7 @@
       <c r="O227" s="5"/>
       <c r="R227" s="1"/>
     </row>
-    <row r="228" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A228" s="3" t="s">
         <v>437</v>
       </c>
@@ -22727,7 +23280,7 @@
       <c r="O228" s="5"/>
       <c r="R228" s="1"/>
     </row>
-    <row r="229" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A229" s="3" t="s">
         <v>252</v>
       </c>
@@ -22771,6 +23324,9 @@
       <c r="C230" s="5" t="s">
         <v>181</v>
       </c>
+      <c r="D230" s="5" t="s">
+        <v>181</v>
+      </c>
       <c r="E230" s="5">
         <v>1544512279</v>
       </c>
@@ -22802,6 +23358,9 @@
       <c r="C231" s="5" t="s">
         <v>181</v>
       </c>
+      <c r="D231" s="5" t="s">
+        <v>181</v>
+      </c>
       <c r="E231" s="5">
         <v>1544534078</v>
       </c>
@@ -22833,6 +23392,9 @@
       <c r="C232" s="5" t="s">
         <v>181</v>
       </c>
+      <c r="D232" s="5" t="s">
+        <v>181</v>
+      </c>
       <c r="E232" s="5">
         <v>1544512279</v>
       </c>
@@ -22864,6 +23426,9 @@
       <c r="C233" s="5" t="s">
         <v>181</v>
       </c>
+      <c r="D233" s="5" t="s">
+        <v>181</v>
+      </c>
       <c r="E233" s="5">
         <v>1544512279</v>
       </c>
@@ -22885,7 +23450,7 @@
       <c r="O233" s="5"/>
       <c r="R233" s="1"/>
     </row>
-    <row r="234" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A234" s="3" t="s">
         <v>93</v>
       </c>
@@ -22919,7 +23484,7 @@
       <c r="O234" s="5"/>
       <c r="R234" s="1"/>
     </row>
-    <row r="235" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A235" s="3" t="s">
         <v>235</v>
       </c>
@@ -22953,7 +23518,7 @@
       <c r="O235" s="5"/>
       <c r="R235" s="1"/>
     </row>
-    <row r="236" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A236" s="3" t="s">
         <v>249</v>
       </c>
@@ -22987,7 +23552,7 @@
       <c r="O236" s="5"/>
       <c r="R236" s="1"/>
     </row>
-    <row r="237" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A237" s="3" t="s">
         <v>285</v>
       </c>
@@ -23021,7 +23586,7 @@
       <c r="O237" s="5"/>
       <c r="R237" s="1"/>
     </row>
-    <row r="238" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A238" s="3" t="s">
         <v>285</v>
       </c>
@@ -23055,7 +23620,7 @@
       <c r="O238" s="5"/>
       <c r="R238" s="1"/>
     </row>
-    <row r="239" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A239" s="3" t="s">
         <v>235</v>
       </c>
@@ -23089,7 +23654,7 @@
       <c r="O239" s="5"/>
       <c r="R239" s="1"/>
     </row>
-    <row r="240" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A240" s="3" t="s">
         <v>346</v>
       </c>
@@ -23123,7 +23688,7 @@
       <c r="O240" s="5"/>
       <c r="R240" s="1"/>
     </row>
-    <row r="241" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A241" s="3" t="s">
         <v>249</v>
       </c>
@@ -23157,7 +23722,7 @@
       <c r="O241" s="5"/>
       <c r="R241" s="1"/>
     </row>
-    <row r="242" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A242" s="3" t="s">
         <v>385</v>
       </c>
@@ -23191,7 +23756,7 @@
       <c r="O242" s="5"/>
       <c r="R242" s="1"/>
     </row>
-    <row r="243" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A243" s="3" t="s">
         <v>385</v>
       </c>
@@ -23225,7 +23790,7 @@
       <c r="O243" s="5"/>
       <c r="R243" s="1"/>
     </row>
-    <row r="244" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A244" s="3" t="s">
         <v>235</v>
       </c>
@@ -23259,7 +23824,7 @@
       <c r="O244" s="5"/>
       <c r="R244" s="1"/>
     </row>
-    <row r="245" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A245" s="3" t="s">
         <v>346</v>
       </c>
@@ -23293,7 +23858,7 @@
       <c r="O245" s="5"/>
       <c r="R245" s="1"/>
     </row>
-    <row r="246" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A246" s="3" t="s">
         <v>249</v>
       </c>
@@ -23327,7 +23892,7 @@
       <c r="O246" s="5"/>
       <c r="R246" s="1"/>
     </row>
-    <row r="247" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A247" s="3" t="s">
         <v>414</v>
       </c>
@@ -23361,7 +23926,7 @@
       <c r="O247" s="5"/>
       <c r="R247" s="1"/>
     </row>
-    <row r="248" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A248" s="3" t="s">
         <v>220</v>
       </c>
@@ -23395,7 +23960,7 @@
       <c r="O248" s="5"/>
       <c r="R248" s="1"/>
     </row>
-    <row r="249" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A249" s="3" t="s">
         <v>83</v>
       </c>
@@ -23429,7 +23994,7 @@
       <c r="O249" s="5"/>
       <c r="R249" s="1"/>
     </row>
-    <row r="250" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A250" s="3" t="s">
         <v>83</v>
       </c>
@@ -23463,7 +24028,7 @@
       <c r="O250" s="5"/>
       <c r="R250" s="1"/>
     </row>
-    <row r="251" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A251" s="3" t="s">
         <v>83</v>
       </c>
@@ -23497,7 +24062,7 @@
       <c r="O251" s="5"/>
       <c r="R251" s="1"/>
     </row>
-    <row r="252" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A252" s="3" t="s">
         <v>83</v>
       </c>
@@ -23531,7 +24096,7 @@
       <c r="O252" s="5"/>
       <c r="R252" s="1"/>
     </row>
-    <row r="253" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A253" s="3" t="s">
         <v>83</v>
       </c>
@@ -23565,7 +24130,7 @@
       <c r="O253" s="5"/>
       <c r="R253" s="1"/>
     </row>
-    <row r="254" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A254" s="3" t="s">
         <v>83</v>
       </c>
@@ -23599,7 +24164,7 @@
       <c r="O254" s="5"/>
       <c r="R254" s="1"/>
     </row>
-    <row r="255" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A255" s="3" t="s">
         <v>112</v>
       </c>
@@ -23633,7 +24198,7 @@
       <c r="O255" s="5"/>
       <c r="R255" s="1"/>
     </row>
-    <row r="256" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A256" s="3" t="s">
         <v>295</v>
       </c>
@@ -23667,7 +24232,7 @@
       <c r="O256" s="5"/>
       <c r="R256" s="1"/>
     </row>
-    <row r="257" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A257" s="3" t="s">
         <v>70</v>
       </c>
@@ -23701,7 +24266,7 @@
       <c r="O257" s="5"/>
       <c r="R257" s="1"/>
     </row>
-    <row r="258" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A258" s="3" t="s">
         <v>70</v>
       </c>
@@ -23735,7 +24300,7 @@
       <c r="O258" s="5"/>
       <c r="R258" s="1"/>
     </row>
-    <row r="259" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A259" s="3" t="s">
         <v>70</v>
       </c>
@@ -23769,7 +24334,7 @@
       <c r="O259" s="5"/>
       <c r="R259" s="1"/>
     </row>
-    <row r="260" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A260" s="3" t="s">
         <v>70</v>
       </c>
@@ -23803,7 +24368,7 @@
       <c r="O260" s="5"/>
       <c r="R260" s="1"/>
     </row>
-    <row r="261" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A261" s="3" t="s">
         <v>368</v>
       </c>
@@ -23837,7 +24402,7 @@
       <c r="O261" s="5"/>
       <c r="R261" s="1"/>
     </row>
-    <row r="262" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A262" s="3" t="s">
         <v>70</v>
       </c>
@@ -23871,7 +24436,7 @@
       <c r="O262" s="5"/>
       <c r="R262" s="1"/>
     </row>
-    <row r="263" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A263" s="3" t="s">
         <v>368</v>
       </c>
@@ -23905,7 +24470,7 @@
       <c r="O263" s="5"/>
       <c r="R263" s="1"/>
     </row>
-    <row r="264" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A264" s="3" t="s">
         <v>70</v>
       </c>
@@ -23939,7 +24504,7 @@
       <c r="O264" s="5"/>
       <c r="R264" s="1"/>
     </row>
-    <row r="265" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A265" s="3" t="s">
         <v>73</v>
       </c>
@@ -23973,7 +24538,7 @@
       <c r="O265" s="5"/>
       <c r="R265" s="1"/>
     </row>
-    <row r="266" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A266" s="3" t="s">
         <v>73</v>
       </c>
@@ -24007,7 +24572,7 @@
       <c r="O266" s="5"/>
       <c r="R266" s="1"/>
     </row>
-    <row r="267" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A267" s="3" t="s">
         <v>146</v>
       </c>
@@ -24041,7 +24606,7 @@
       <c r="O267" s="5"/>
       <c r="R267" s="1"/>
     </row>
-    <row r="268" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A268" s="3" t="s">
         <v>146</v>
       </c>
@@ -24075,7 +24640,7 @@
       <c r="O268" s="5"/>
       <c r="R268" s="1"/>
     </row>
-    <row r="269" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A269" s="3" t="s">
         <v>319</v>
       </c>
@@ -24109,7 +24674,7 @@
       <c r="O269" s="5"/>
       <c r="R269" s="1"/>
     </row>
-    <row r="270" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A270" s="3" t="s">
         <v>73</v>
       </c>
@@ -24143,7 +24708,7 @@
       <c r="O270" s="5"/>
       <c r="R270" s="1"/>
     </row>
-    <row r="271" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A271" s="3" t="s">
         <v>73</v>
       </c>
@@ -24177,7 +24742,7 @@
       <c r="O271" s="5"/>
       <c r="R271" s="1"/>
     </row>
-    <row r="272" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A272" s="3" t="s">
         <v>412</v>
       </c>
@@ -24211,7 +24776,7 @@
       <c r="O272" s="5"/>
       <c r="R272" s="1"/>
     </row>
-    <row r="273" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A273" s="3" t="s">
         <v>370</v>
       </c>
@@ -24245,7 +24810,7 @@
       <c r="O273" s="5"/>
       <c r="R273" s="1"/>
     </row>
-    <row r="274" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A274" s="3" t="s">
         <v>370</v>
       </c>
@@ -24279,7 +24844,7 @@
       <c r="O274" s="5"/>
       <c r="R274" s="1"/>
     </row>
-    <row r="275" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A275" s="3" t="s">
         <v>53</v>
       </c>
@@ -24313,7 +24878,7 @@
       <c r="O275" s="5"/>
       <c r="R275" s="1"/>
     </row>
-    <row r="276" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A276" s="3" t="s">
         <v>53</v>
       </c>
@@ -24347,7 +24912,7 @@
       <c r="O276" s="5"/>
       <c r="R276" s="1"/>
     </row>
-    <row r="277" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A277" s="3" t="s">
         <v>148</v>
       </c>
@@ -24381,7 +24946,7 @@
       <c r="O277" s="5"/>
       <c r="R277" s="1"/>
     </row>
-    <row r="278" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A278" s="3" t="s">
         <v>53</v>
       </c>
@@ -24415,7 +24980,7 @@
       <c r="O278" s="5"/>
       <c r="R278" s="1"/>
     </row>
-    <row r="279" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A279" s="3" t="s">
         <v>53</v>
       </c>
@@ -24449,7 +25014,7 @@
       <c r="O279" s="5"/>
       <c r="R279" s="1"/>
     </row>
-    <row r="280" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A280" s="3" t="s">
         <v>53</v>
       </c>
@@ -24483,7 +25048,7 @@
       <c r="O280" s="5"/>
       <c r="R280" s="1"/>
     </row>
-    <row r="281" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A281" s="3" t="s">
         <v>53</v>
       </c>
@@ -24517,7 +25082,7 @@
       <c r="O281" s="5"/>
       <c r="R281" s="1"/>
     </row>
-    <row r="282" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A282" s="3" t="s">
         <v>148</v>
       </c>
@@ -24551,7 +25116,7 @@
       <c r="O282" s="5"/>
       <c r="R282" s="1"/>
     </row>
-    <row r="283" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A283" s="3" t="s">
         <v>168</v>
       </c>
@@ -24585,7 +25150,7 @@
       <c r="O283" s="5"/>
       <c r="R283" s="1"/>
     </row>
-    <row r="284" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A284" s="3" t="s">
         <v>168</v>
       </c>
@@ -24619,7 +25184,7 @@
       <c r="O284" s="5"/>
       <c r="R284" s="1"/>
     </row>
-    <row r="285" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="285" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A285" s="3" t="s">
         <v>203</v>
       </c>
@@ -24653,7 +25218,7 @@
       <c r="O285" s="5"/>
       <c r="R285" s="1"/>
     </row>
-    <row r="286" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="286" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A286" s="3" t="s">
         <v>245</v>
       </c>
@@ -24687,7 +25252,7 @@
       <c r="O286" s="5"/>
       <c r="R286" s="1"/>
     </row>
-    <row r="287" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="287" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A287" s="3" t="s">
         <v>245</v>
       </c>
@@ -24721,7 +25286,7 @@
       <c r="O287" s="5"/>
       <c r="R287" s="1"/>
     </row>
-    <row r="288" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="288" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A288" s="3" t="s">
         <v>333</v>
       </c>
@@ -24755,7 +25320,7 @@
       <c r="O288" s="5"/>
       <c r="R288" s="1"/>
     </row>
-    <row r="289" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="289" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A289" s="3" t="s">
         <v>333</v>
       </c>
@@ -24789,7 +25354,7 @@
       <c r="O289" s="5"/>
       <c r="R289" s="1"/>
     </row>
-    <row r="290" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="290" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A290" s="3" t="s">
         <v>126</v>
       </c>
@@ -24823,7 +25388,7 @@
       <c r="O290" s="5"/>
       <c r="R290" s="1"/>
     </row>
-    <row r="291" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="291" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A291" s="3" t="s">
         <v>126</v>
       </c>
@@ -24857,7 +25422,7 @@
       <c r="O291" s="5"/>
       <c r="R291" s="1"/>
     </row>
-    <row r="292" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="292" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A292" s="3" t="s">
         <v>126</v>
       </c>
@@ -24891,7 +25456,7 @@
       <c r="O292" s="5"/>
       <c r="R292" s="1"/>
     </row>
-    <row r="293" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="293" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A293" s="3" t="s">
         <v>359</v>
       </c>
@@ -24925,7 +25490,7 @@
       <c r="O293" s="5"/>
       <c r="R293" s="1"/>
     </row>
-    <row r="294" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="294" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A294" s="3" t="s">
         <v>359</v>
       </c>
@@ -24959,7 +25524,7 @@
       <c r="O294" s="5"/>
       <c r="R294" s="1"/>
     </row>
-    <row r="295" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="295" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A295" s="3" t="s">
         <v>261</v>
       </c>
@@ -24993,7 +25558,7 @@
       <c r="O295" s="5"/>
       <c r="R295" s="1"/>
     </row>
-    <row r="296" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="296" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A296" s="3" t="s">
         <v>261</v>
       </c>
@@ -25027,7 +25592,7 @@
       <c r="O296" s="5"/>
       <c r="R296" s="1"/>
     </row>
-    <row r="297" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="297" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A297" s="3" t="s">
         <v>261</v>
       </c>
@@ -25061,7 +25626,7 @@
       <c r="O297" s="5"/>
       <c r="R297" s="1"/>
     </row>
-    <row r="298" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="298" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A298" s="3" t="s">
         <v>46</v>
       </c>
@@ -25095,7 +25660,7 @@
       <c r="O298" s="5"/>
       <c r="R298" s="1"/>
     </row>
-    <row r="299" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="299" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A299" s="3" t="s">
         <v>76</v>
       </c>
@@ -25129,7 +25694,7 @@
       <c r="O299" s="5"/>
       <c r="R299" s="1"/>
     </row>
-    <row r="300" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="300" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A300" s="3" t="s">
         <v>46</v>
       </c>
@@ -25163,7 +25728,7 @@
       <c r="O300" s="5"/>
       <c r="R300" s="1"/>
     </row>
-    <row r="301" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="301" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A301" s="3" t="s">
         <v>76</v>
       </c>
@@ -25197,7 +25762,7 @@
       <c r="O301" s="5"/>
       <c r="R301" s="1"/>
     </row>
-    <row r="302" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="302" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A302" s="3" t="s">
         <v>144</v>
       </c>
@@ -25231,7 +25796,7 @@
       <c r="O302" s="5"/>
       <c r="R302" s="1"/>
     </row>
-    <row r="303" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="303" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A303" s="3" t="s">
         <v>157</v>
       </c>
@@ -25265,7 +25830,7 @@
       <c r="O303" s="5"/>
       <c r="R303" s="1"/>
     </row>
-    <row r="304" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="304" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A304" s="3" t="s">
         <v>188</v>
       </c>
@@ -25299,7 +25864,7 @@
       <c r="O304" s="5"/>
       <c r="R304" s="1"/>
     </row>
-    <row r="305" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="305" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A305" s="3" t="s">
         <v>209</v>
       </c>
@@ -25333,7 +25898,7 @@
       <c r="O305" s="5"/>
       <c r="R305" s="1"/>
     </row>
-    <row r="306" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="306" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A306" s="3" t="s">
         <v>283</v>
       </c>
@@ -25367,7 +25932,7 @@
       <c r="O306" s="5"/>
       <c r="R306" s="1"/>
     </row>
-    <row r="307" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="307" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A307" s="3" t="s">
         <v>76</v>
       </c>
@@ -25401,7 +25966,7 @@
       <c r="O307" s="5"/>
       <c r="R307" s="1"/>
     </row>
-    <row r="308" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="308" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A308" s="3" t="s">
         <v>300</v>
       </c>
@@ -25435,7 +26000,7 @@
       <c r="O308" s="5"/>
       <c r="R308" s="1"/>
     </row>
-    <row r="309" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="309" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A309" s="3" t="s">
         <v>283</v>
       </c>
@@ -25469,7 +26034,7 @@
       <c r="O309" s="5"/>
       <c r="R309" s="1"/>
     </row>
-    <row r="310" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="310" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A310" s="3" t="s">
         <v>76</v>
       </c>
@@ -25503,7 +26068,7 @@
       <c r="O310" s="5"/>
       <c r="R310" s="1"/>
     </row>
-    <row r="311" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="311" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A311" s="3" t="s">
         <v>136</v>
       </c>
@@ -25537,7 +26102,7 @@
       <c r="O311" s="5"/>
       <c r="R311" s="1"/>
     </row>
-    <row r="312" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="312" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A312" s="3" t="s">
         <v>144</v>
       </c>
@@ -25571,7 +26136,7 @@
       <c r="O312" s="5"/>
       <c r="R312" s="1"/>
     </row>
-    <row r="313" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="313" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A313" s="3" t="s">
         <v>188</v>
       </c>
@@ -25605,7 +26170,7 @@
       <c r="O313" s="5"/>
       <c r="R313" s="1"/>
     </row>
-    <row r="314" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="314" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A314" s="3" t="s">
         <v>209</v>
       </c>
@@ -25639,7 +26204,7 @@
       <c r="O314" s="5"/>
       <c r="R314" s="1"/>
     </row>
-    <row r="315" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="315" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A315" s="3" t="s">
         <v>46</v>
       </c>
@@ -25673,7 +26238,7 @@
       <c r="O315" s="5"/>
       <c r="R315" s="1"/>
     </row>
-    <row r="316" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="316" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A316" s="3" t="s">
         <v>387</v>
       </c>
@@ -25707,7 +26272,7 @@
       <c r="O316" s="5"/>
       <c r="R316" s="1"/>
     </row>
-    <row r="317" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="317" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A317" s="3" t="s">
         <v>46</v>
       </c>
@@ -25741,7 +26306,7 @@
       <c r="O317" s="5"/>
       <c r="R317" s="1"/>
     </row>
-    <row r="318" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="318" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A318" s="3" t="s">
         <v>387</v>
       </c>
@@ -25775,7 +26340,7 @@
       <c r="O318" s="5"/>
       <c r="R318" s="1"/>
     </row>
-    <row r="319" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="319" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A319" s="3" t="s">
         <v>209</v>
       </c>
@@ -25809,7 +26374,7 @@
       <c r="O319" s="5"/>
       <c r="R319" s="1"/>
     </row>
-    <row r="320" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="320" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A320" s="3" t="s">
         <v>200</v>
       </c>
@@ -25843,7 +26408,7 @@
       <c r="O320" s="5"/>
       <c r="R320" s="1"/>
     </row>
-    <row r="321" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="321" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A321" s="3" t="s">
         <v>200</v>
       </c>
@@ -25877,7 +26442,7 @@
       <c r="O321" s="5"/>
       <c r="R321" s="1"/>
     </row>
-    <row r="322" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="322" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A322" s="3" t="s">
         <v>292</v>
       </c>
@@ -25911,7 +26476,7 @@
       <c r="O322" s="5"/>
       <c r="R322" s="1"/>
     </row>
-    <row r="323" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="323" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A323" s="3" t="s">
         <v>375</v>
       </c>
@@ -25945,7 +26510,7 @@
       <c r="O323" s="5"/>
       <c r="R323" s="1"/>
     </row>
-    <row r="324" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="324" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A324" s="3" t="s">
         <v>375</v>
       </c>
@@ -25989,6 +26554,9 @@
       <c r="C325" s="5" t="s">
         <v>398</v>
       </c>
+      <c r="D325" s="5" t="s">
+        <v>398</v>
+      </c>
       <c r="E325" s="5">
         <v>1955905142</v>
       </c>
@@ -26010,7 +26578,7 @@
       <c r="O325" s="5"/>
       <c r="R325" s="1"/>
     </row>
-    <row r="326" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="326" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A326" s="3" t="s">
         <v>231</v>
       </c>
@@ -26044,7 +26612,7 @@
       <c r="O326" s="5"/>
       <c r="R326" s="1"/>
     </row>
-    <row r="327" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="327" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A327" s="3" t="s">
         <v>247</v>
       </c>
@@ -26078,7 +26646,7 @@
       <c r="O327" s="5"/>
       <c r="R327" s="1"/>
     </row>
-    <row r="328" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="328" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A328" s="3" t="s">
         <v>258</v>
       </c>
@@ -26112,7 +26680,7 @@
       <c r="O328" s="5"/>
       <c r="R328" s="1"/>
     </row>
-    <row r="329" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="329" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A329" s="3" t="s">
         <v>271</v>
       </c>
@@ -26146,7 +26714,7 @@
       <c r="O329" s="5"/>
       <c r="R329" s="1"/>
     </row>
-    <row r="330" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="330" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A330" s="3" t="s">
         <v>231</v>
       </c>
@@ -26180,7 +26748,7 @@
       <c r="O330" s="5"/>
       <c r="R330" s="1"/>
     </row>
-    <row r="331" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="331" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A331" s="3" t="s">
         <v>348</v>
       </c>
@@ -26214,7 +26782,7 @@
       <c r="O331" s="5"/>
       <c r="R331" s="1"/>
     </row>
-    <row r="332" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="332" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A332" s="3" t="s">
         <v>247</v>
       </c>
@@ -26248,7 +26816,7 @@
       <c r="O332" s="5"/>
       <c r="R332" s="1"/>
     </row>
-    <row r="333" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="333" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A333" s="3" t="s">
         <v>258</v>
       </c>
@@ -26282,7 +26850,7 @@
       <c r="O333" s="5"/>
       <c r="R333" s="1"/>
     </row>
-    <row r="334" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="334" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A334" s="3" t="s">
         <v>231</v>
       </c>
@@ -26316,7 +26884,7 @@
       <c r="O334" s="5"/>
       <c r="R334" s="1"/>
     </row>
-    <row r="335" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="335" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A335" s="3" t="s">
         <v>247</v>
       </c>
@@ -26350,7 +26918,7 @@
       <c r="O335" s="5"/>
       <c r="R335" s="1"/>
     </row>
-    <row r="336" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="336" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A336" s="3" t="s">
         <v>441</v>
       </c>
@@ -26384,7 +26952,7 @@
       <c r="O336" s="5"/>
       <c r="R336" s="1"/>
     </row>
-    <row r="337" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="337" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A337" s="3" t="s">
         <v>258</v>
       </c>
@@ -26418,7 +26986,7 @@
       <c r="O337" s="5"/>
       <c r="R337" s="1"/>
     </row>
-    <row r="338" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="338" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A338" s="3" t="s">
         <v>96</v>
       </c>
@@ -26452,7 +27020,7 @@
       <c r="O338" s="5"/>
       <c r="R338" s="1"/>
     </row>
-    <row r="339" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="339" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A339" s="3" t="s">
         <v>153</v>
       </c>
@@ -26486,7 +27054,7 @@
       <c r="O339" s="5"/>
       <c r="R339" s="1"/>
     </row>
-    <row r="340" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="340" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A340" s="3" t="s">
         <v>287</v>
       </c>
@@ -26520,7 +27088,7 @@
       <c r="O340" s="5"/>
       <c r="R340" s="1"/>
     </row>
-    <row r="341" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="341" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A341" s="3" t="s">
         <v>96</v>
       </c>
@@ -26554,7 +27122,7 @@
       <c r="O341" s="5"/>
       <c r="R341" s="1"/>
     </row>
-    <row r="342" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="342" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A342" s="3" t="s">
         <v>287</v>
       </c>
@@ -26588,7 +27156,7 @@
       <c r="O342" s="5"/>
       <c r="R342" s="1"/>
     </row>
-    <row r="343" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="343" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A343" s="3" t="s">
         <v>96</v>
       </c>
@@ -26622,7 +27190,7 @@
       <c r="O343" s="5"/>
       <c r="R343" s="1"/>
     </row>
-    <row r="344" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="344" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A344" s="3" t="s">
         <v>153</v>
       </c>
@@ -26656,7 +27224,7 @@
       <c r="O344" s="5"/>
       <c r="R344" s="1"/>
     </row>
-    <row r="345" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="345" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A345" s="3" t="s">
         <v>56</v>
       </c>
@@ -26690,7 +27258,7 @@
       <c r="O345" s="5"/>
       <c r="R345" s="1"/>
     </row>
-    <row r="346" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="346" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A346" s="3" t="s">
         <v>86</v>
       </c>
@@ -26724,7 +27292,7 @@
       <c r="O346" s="5"/>
       <c r="R346" s="1"/>
     </row>
-    <row r="347" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="347" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A347" s="3" t="s">
         <v>56</v>
       </c>
@@ -26758,7 +27326,7 @@
       <c r="O347" s="5"/>
       <c r="R347" s="1"/>
     </row>
-    <row r="348" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="348" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A348" s="3" t="s">
         <v>86</v>
       </c>
@@ -26792,7 +27360,7 @@
       <c r="O348" s="5"/>
       <c r="R348" s="1"/>
     </row>
-    <row r="349" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="349" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A349" s="3" t="s">
         <v>166</v>
       </c>
@@ -26826,7 +27394,7 @@
       <c r="O349" s="5"/>
       <c r="R349" s="1"/>
     </row>
-    <row r="350" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="350" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A350" s="3" t="s">
         <v>182</v>
       </c>
@@ -26860,7 +27428,7 @@
       <c r="O350" s="5"/>
       <c r="R350" s="1"/>
     </row>
-    <row r="351" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="351" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A351" s="3" t="s">
         <v>240</v>
       </c>
@@ -26894,7 +27462,7 @@
       <c r="O351" s="5"/>
       <c r="R351" s="1"/>
     </row>
-    <row r="352" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="352" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A352" s="3" t="s">
         <v>56</v>
       </c>
@@ -26928,7 +27496,7 @@
       <c r="O352" s="5"/>
       <c r="R352" s="1"/>
     </row>
-    <row r="353" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="353" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A353" s="3" t="s">
         <v>56</v>
       </c>
@@ -26962,7 +27530,7 @@
       <c r="O353" s="5"/>
       <c r="R353" s="1"/>
     </row>
-    <row r="354" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="354" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A354" s="3" t="s">
         <v>303</v>
       </c>
@@ -26996,7 +27564,7 @@
       <c r="O354" s="5"/>
       <c r="R354" s="1"/>
     </row>
-    <row r="355" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="355" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A355" s="3" t="s">
         <v>240</v>
       </c>
@@ -27030,7 +27598,7 @@
       <c r="O355" s="5"/>
       <c r="R355" s="1"/>
     </row>
-    <row r="356" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="356" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A356" s="3" t="s">
         <v>355</v>
       </c>
@@ -27064,7 +27632,7 @@
       <c r="O356" s="5"/>
       <c r="R356" s="1"/>
     </row>
-    <row r="357" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="357" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A357" s="3" t="s">
         <v>56</v>
       </c>
@@ -27098,7 +27666,7 @@
       <c r="O357" s="5"/>
       <c r="R357" s="1"/>
     </row>
-    <row r="358" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="358" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A358" s="3" t="s">
         <v>56</v>
       </c>
@@ -27132,7 +27700,7 @@
       <c r="O358" s="5"/>
       <c r="R358" s="1"/>
     </row>
-    <row r="359" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="359" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A359" s="3" t="s">
         <v>166</v>
       </c>
@@ -27166,7 +27734,7 @@
       <c r="O359" s="5"/>
       <c r="R359" s="1"/>
     </row>
-    <row r="360" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="360" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A360" s="3" t="s">
         <v>240</v>
       </c>
@@ -27200,7 +27768,7 @@
       <c r="O360" s="5"/>
       <c r="R360" s="1"/>
     </row>
-    <row r="361" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="361" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A361" s="3" t="s">
         <v>425</v>
       </c>
@@ -27234,7 +27802,7 @@
       <c r="O361" s="5"/>
       <c r="R361" s="1"/>
     </row>
-    <row r="362" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="362" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A362" s="3" t="s">
         <v>428</v>
       </c>
@@ -27268,7 +27836,7 @@
       <c r="O362" s="5"/>
       <c r="R362" s="1"/>
     </row>
-    <row r="363" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="363" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A363" s="3" t="s">
         <v>197</v>
       </c>
@@ -27302,7 +27870,7 @@
       <c r="O363" s="5"/>
       <c r="R363" s="1"/>
     </row>
-    <row r="364" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="364" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A364" s="3" t="s">
         <v>197</v>
       </c>
@@ -27336,7 +27904,7 @@
       <c r="O364" s="5"/>
       <c r="R364" s="1"/>
     </row>
-    <row r="365" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="365" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A365" s="3" t="s">
         <v>67</v>
       </c>
@@ -27370,7 +27938,7 @@
       <c r="O365" s="5"/>
       <c r="R365" s="1"/>
     </row>
-    <row r="366" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="366" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A366" s="3" t="s">
         <v>89</v>
       </c>
@@ -27404,7 +27972,7 @@
       <c r="O366" s="5"/>
       <c r="R366" s="1"/>
     </row>
-    <row r="367" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="367" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A367" s="3" t="s">
         <v>67</v>
       </c>
@@ -27438,7 +28006,7 @@
       <c r="O367" s="5"/>
       <c r="R367" s="1"/>
     </row>
-    <row r="368" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="368" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A368" s="3" t="s">
         <v>297</v>
       </c>
@@ -27472,7 +28040,7 @@
       <c r="O368" s="5"/>
       <c r="R368" s="1"/>
     </row>
-    <row r="369" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="369" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A369" s="3" t="s">
         <v>403</v>
       </c>
@@ -27506,7 +28074,7 @@
       <c r="O369" s="5"/>
       <c r="R369" s="1"/>
     </row>
-    <row r="370" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="370" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A370" s="3" t="s">
         <v>417</v>
       </c>
@@ -27540,7 +28108,7 @@
       <c r="O370" s="5"/>
       <c r="R370" s="1"/>
     </row>
-    <row r="371" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="371" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A371" s="3" t="s">
         <v>171</v>
       </c>
@@ -27574,7 +28142,7 @@
       <c r="O371" s="5"/>
       <c r="R371" s="1"/>
     </row>
-    <row r="372" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="372" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A372" s="3" t="s">
         <v>278</v>
       </c>
@@ -27608,7 +28176,7 @@
       <c r="O372" s="5"/>
       <c r="R372" s="1"/>
     </row>
-    <row r="373" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="373" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A373" s="3" t="s">
         <v>379</v>
       </c>
@@ -27642,7 +28210,7 @@
       <c r="O373" s="5"/>
       <c r="R373" s="1"/>
     </row>
-    <row r="374" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="374" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A374" s="3" t="s">
         <v>379</v>
       </c>
@@ -27676,7 +28244,7 @@
       <c r="O374" s="5"/>
       <c r="R374" s="1"/>
     </row>
-    <row r="375" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="375" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A375" s="3" t="s">
         <v>107</v>
       </c>
@@ -27710,7 +28278,7 @@
       <c r="O375" s="5"/>
       <c r="R375" s="1"/>
     </row>
-    <row r="376" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="376" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A376" s="3" t="s">
         <v>110</v>
       </c>
@@ -27744,7 +28312,7 @@
       <c r="O376" s="5"/>
       <c r="R376" s="1"/>
     </row>
-    <row r="377" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="377" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A377" s="3" t="s">
         <v>107</v>
       </c>
@@ -27778,7 +28346,7 @@
       <c r="O377" s="5"/>
       <c r="R377" s="1"/>
     </row>
-    <row r="378" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="378" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A378" s="3" t="s">
         <v>389</v>
       </c>
@@ -27812,7 +28380,7 @@
       <c r="O378" s="5"/>
       <c r="R378" s="1"/>
     </row>
-    <row r="379" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="379" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A379" s="3" t="s">
         <v>107</v>
       </c>
@@ -27846,7 +28414,7 @@
       <c r="O379" s="5"/>
       <c r="R379" s="1"/>
     </row>
-    <row r="380" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="380" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A380" s="3" t="s">
         <v>131</v>
       </c>
@@ -27880,7 +28448,7 @@
       <c r="O380" s="5"/>
       <c r="R380" s="1"/>
     </row>
-    <row r="381" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="381" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A381" s="3" t="s">
         <v>131</v>
       </c>
@@ -27914,7 +28482,7 @@
       <c r="O381" s="5"/>
       <c r="R381" s="1"/>
     </row>
-    <row r="382" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="382" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A382" s="3" t="s">
         <v>20</v>
       </c>
@@ -27948,7 +28516,7 @@
       <c r="O382" s="5"/>
       <c r="R382" s="1"/>
     </row>
-    <row r="383" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="383" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A383" s="3" t="s">
         <v>20</v>
       </c>
@@ -27982,7 +28550,7 @@
       <c r="O383" s="5"/>
       <c r="R383" s="1"/>
     </row>
-    <row r="384" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="384" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A384" s="3" t="s">
         <v>20</v>
       </c>
@@ -28016,7 +28584,7 @@
       <c r="O384" s="5"/>
       <c r="R384" s="1"/>
     </row>
-    <row r="385" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="385" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A385" s="3" t="s">
         <v>20</v>
       </c>
@@ -28050,7 +28618,7 @@
       <c r="O385" s="5"/>
       <c r="R385" s="1"/>
     </row>
-    <row r="386" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="386" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A386" s="3" t="s">
         <v>20</v>
       </c>
@@ -28084,7 +28652,7 @@
       <c r="O386" s="5"/>
       <c r="R386" s="1"/>
     </row>
-    <row r="387" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="387" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A387" s="3" t="s">
         <v>20</v>
       </c>
@@ -28118,7 +28686,7 @@
       <c r="O387" s="5"/>
       <c r="R387" s="1"/>
     </row>
-    <row r="388" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="388" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A388" s="3" t="s">
         <v>443</v>
       </c>
@@ -28162,6 +28730,9 @@
       <c r="C389" s="5" t="s">
         <v>219</v>
       </c>
+      <c r="D389" s="5" t="s">
+        <v>219</v>
+      </c>
       <c r="E389" s="5">
         <v>1523507497</v>
       </c>
@@ -28183,7 +28754,7 @@
       <c r="O389" s="5"/>
       <c r="R389" s="1"/>
     </row>
-    <row r="390" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="390" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A390" s="3" t="s">
         <v>214</v>
       </c>
@@ -28217,7 +28788,7 @@
       <c r="O390" s="5"/>
       <c r="R390" s="1"/>
     </row>
-    <row r="391" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="391" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A391" s="3" t="s">
         <v>342</v>
       </c>
@@ -28253,6 +28824,9 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:I391" xr:uid="{F8DE5309-DC6B-B148-AB7D-A0DB869E6EAB}">
+    <filterColumn colId="3">
+      <filters blank="1"/>
+    </filterColumn>
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:I391">
       <sortCondition ref="C1:C391"/>
     </sortState>
